--- a/R/journal_URL.xlsx
+++ b/R/journal_URL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAB643E-4DB7-1544-9E01-AF6DB121931F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA6C8D-4472-D542-8067-B6A10E051E73}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="480" windowWidth="13680" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24580" yWindow="0" windowWidth="16380" windowHeight="23040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="733">
   <si>
     <t>journal</t>
   </si>
@@ -1400,6 +1400,837 @@
   </si>
   <si>
     <t>https://academic.oup.com/ps/article/97/3/930/4780254</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/effect-of-dietary-nutrients-on-ileal-endogenous-losses-of-threonine-cysteine-methionine-lysine-leucine-and-protein-in-broiler-chicks/EDBD7F7484A06AEF1265687BE6E5ADF7</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/feeding-broilers-with-dry-whey-powder-and-whey-protein-concentrate-affected-productive-performance-ileal-digestibility-of-nutrients-and-cecal-microbiota-community/DFC13AE6A164C9E95DA7A48696AD465A</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/review-to-be-or-not-to-be-an-identifiable-model-is-this-a-relevant-question-in-animal-science-modelling/59B51BAF48C63A1874665FC8EEB173C3</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/plane-of-nutrition-during-the-rearing-phase-for-replacement-ewes-of-four-genotypes-i-effects-on-growth-and-development-and-on-ovulation-rate-at-first-joining/8569497BAB2847809EC0C677ADDC782F</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/plane-of-nutrition-during-the-rearing-phase-for-replacement-ewes-of-four-genotypes-ii-effects-on-performance-during-first-pregnancy-and-to-weaning-and-of-their-progeny/1797086FF098D24F9B6B4719F687576B</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/nutrient-intake-rumen-fermentation-and-growth-performance-of-dairy-calves-fed-extruded-fullfat-soybean-as-a-replacement-for-soybean-meal/5E72B03B4FA824C10922F0ECC2AFEBA0</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/metabolic-and-stress-responses-in-dairy-cows-fed-a-concentraterich-diet-and-submitted-to-intramammary-lipopolysaccharide-challenge/1C5FDCD4E3FAFDB209624D8367102511</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/feeding-dried-distillers-grains-with-solubles-to-lactating-beef-cows-impact-of-excess-protein-and-fat-on-postweaning-progeny-growth-glucose-tolerance-and-carcass-traits/86336BDA9818F7EFBCE8158D88AA7CEC</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/effect-of-glycerol-supplementation-during-early-lactation-on-milk-yield-milk-composition-nutrient-digestibility-and-blood-metabolites-of-dairy-buffaloes/AA61BE09E7B1FF7948B3FDFF5226E24B</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/effects-of-feeding-low-fishmeal-diets-with-increasing-soybean-meal-levels-on-growth-gut-histology-and-plasma-biochemistry-of-sea-bass/51D3DE885BAA931FD71D999FC1854D6F</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/effects-of-methionine-hydroxy-analogue-supplementation-on-the-expression-of-antioxidantrelated-genes-of-acute-heat-stressexposed-broilers/1FC570D49E3A0DE4F7A8FEC86B246486</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/prediction-of-the-amino-acid-digestibility-of-legume-seeds-in-growing-pigs-a-metaanalysis-approach/59BAA14E9DFD32C439B2AD4E7F603AAD</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/pelleting-and-extrusion-can-ameliorate-negative-effects-of-toasting-of-rapeseed-meal-on-protein-digestibility-in-growing-pigs/67B51677A7D6687D00C07FA81E9E6251</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/growth-performance-and-digestion-of-growing-lambs-fed-diets-supplemented-with-glycerol/5FAFE959A59C48D86CC8BC96D92679A3</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/effects-of-replacement-of-moringa-oleifera-for-berseem-clover-in-the-diets-of-nubian-goats-on-feed-utilisation-and-milk-yield-composition-and-fatty-acid-profile/1F3954B17DE03C20B764B2DD2C4A4E62</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/monitoring-and-assessment-of-ingestive-chewing-sounds-for-prediction-of-herbage-intake-rate-in-grazing-cattle/4DA44AC6FA6506BC194448D7D5FA32E4</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/combined-effects-of-oleic-linoleic-and-linolenic-acids-on-lactation-performance-and-the-milk-fatty-acid-profile-in-lactating-dairy-cows/AFEE33462874B166C9203C8C116BC759</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/review-pork-production-with-maximal-nitrogen-efficiency/017227D23788A84F65FC2F373B092332</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/viscosity-negatively-affects-the-nutritional-value-of-blue-lupin-seeds-for-broilers/A8CF9B2417A4BB23629DE4CE4D5C99CC</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/reducing-agent-can-be-omitted-in-the-incubation-medium-of-the-batch-in-vitro-fermentation-model-of-the-pig-intestines/C9F9E0DE5EE06768C7D637255AF40E83</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/consequences-of-dietary-calcium-and-phosphorus-depletion-and-repletion-feeding-sequences-on-growth-performance-and-body-composition-of-growing-pigs/03BF19E23E6208C80F3A2453AE0E4466</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/an-assessment-of-walkoverweighing-to-estimate-shortterm-individual-forage-intake-in-sheep/BA186989F64A7FC39A25D1B9C94E737A</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/modeling-homeorhetic-trajectories-of-milk-component-yields-body-composition-and-drymatter-intake-in-dairy-cows-influence-of-parity-milk-production-potential-and-breed/2A68C35D2888F984921EE9FDF3D5C26A</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/modelling-interactions-between-farmer-practices-and-fattening-pig-performances-with-an-individualbased-model/36D59E28F58E17CF75B18CC7748DC199</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/evaluation-of-trace-element-status-of-organic-dairy-cattle/0AF84F0871F1DDD1496854F32DD185EA</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/maternal-dietary-supplementation-with-ferrous-ncarbamylglycinate-chelate-affects-sow-reproductive-performance-and-iron-status-of-neonatal-piglets/7217383B7093E8641FD35D11E1128D7B</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/doseresponse-evaluation-of-the-standardized-ileal-digestible-tryptophan-lysine-ratio-to-maximize-growth-performance-of-growingfinishing-gilts-under-commercial-conditions/0C9AD60F0AA65B0F3AF2652EAAD5F8AC</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/effects-of-soluble-fiber-inclusion-in-gestation-diets-with-varying-fermentation-characteristics-on-lactational-feed-intake-of-sows-over-two-successive-parities/E6F6C977734B462784F4B91E216FB6BF</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/isolating-the-cowspecific-part-of-residual-energy-intake-in-lactating-dairy-cows-using-random-regressions/62EA1A9DE23DBF92B1E9856AC203A2EA</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/peroxisome-proliferatoractivated-receptor-gamma-ppar-agonist-fails-to-overcome-trans10-cis12-conjugated-linoleic-acid-cla-inhibition-of-milk-fat-in-dairy-sheep/C80CE3E2DCB7ABB693C39D923593CA9F</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/animal/article/analysis-of-preweaning-feeding-policies-and-other-risk-factors-influencing-growth-rates-in-calves-on-11-commercial-dairy-farms/869BB2B11ACF47EAD111950FB3362DE6</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117309537</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S037784011731091X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117312658</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117313536</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117310659</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117308507</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118301512</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S037784011731307X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117315729</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117314682</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117314694</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117313275</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S037784011731619X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117314803</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117303553</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840116304175</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117308891</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117310477</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117307071</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117314670</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117314049</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118300841</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118300932</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117305205</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118300063</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117305047</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118300403</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117309574</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117312695</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118300336</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118302359</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117312737</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118301627</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117313846</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117313858</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117313391</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117314815</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117312415</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117314529</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117315353</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117313263</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117314438</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117313950</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117315274</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118300117</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117316255</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117309586</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118300543</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118301196</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117315158</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117315730</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117311987</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118302049</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117314979</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117310672</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118301263</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117315560</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117312889</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117315705</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840118302013</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117313111</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S037784011731043X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117315948</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377840117302791</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23845</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23835</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23795</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23829</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23926</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23874</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23842</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23919</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23836</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23888</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23711</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23877</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23561</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23988</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23941</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23915</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23846</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23136</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23890</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23876</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23881</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23899</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23887</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23880</t>
+  </si>
+  <si>
+    <t>https://www.ajas.info/journal/view.php?number=23891</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1330/4970682</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1338/4877106</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1350/4924839</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1362/4868597</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1419/4868607</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1430/4908682</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1441/4907944</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1474/4870023</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1484/4877031</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1495/4871917</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1508/4868578</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1531/4970664</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1540/4828311</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/4/1551/4925439</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1678/4922473</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1806/4960001</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1818/4944402</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1825/4941673</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1838/4925790</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1846/4925248</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1860/4925234</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1869/4870010</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1877/4979610</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1903/4925262</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1914/4922700</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1929/4920974</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1939/4958201</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1952/4922424</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1962/4913645</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1978/4908655</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/5/1996/4992782</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2184/4969880</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2265/4983097</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2278/4976429</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2293/4972702</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2310/4994062</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2320/4976412</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2332/4975765</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2342/4969323</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2352/4960036</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2361/4944394</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2371/4994009</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2380/4870008</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2438/4972789</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2453/4969900</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2468/4962486</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2474/5017503</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2490/4938566</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jas/article/96/6/2504/4931178</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218300614</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218300961</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218300936</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218300596</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218300560</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218300511</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218301061</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218300845</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218300651</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218300687</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218301024</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218303187</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218303199</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218303205</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218303229</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218303230</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218303242</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218303254</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218303266</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218303278</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S002203021830328X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218303291</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218303308</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S002203021830331X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218301620</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218301334</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218301346</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218301358</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218300274</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218301504</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S002203021830153X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218301619</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218301735</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218301279</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218303023</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302212</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302121</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302200</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302224</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S002203021830256X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S002203021830208X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302236</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302807</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302091</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302133</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302534</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302911</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302339</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302649</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302480</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022030218302108</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1871141318300520</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1871141318300313</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1871141318300581</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1871141318300532</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1871141318300283</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1871141318300210</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1871141318300246</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1871141317303669</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1871141318300635</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1871141318300994</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1871141318300866</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1871141318300842</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1155/4851132</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1361/4818390</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1368/4792824</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1163/4817018</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1170/4801128</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1177/4792819</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1189/4801129</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1199/4792820</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1209/4846321</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1220/4792821</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1229/4817019</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1238/4857170</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1245/4818392</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1253/4818393</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1263/4857171</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1271/4851133</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1283/4818394</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1290/4857172</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1298/4818395</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1306/4825855</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1315/4859444</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1324/4816030</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1334/4857173</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1342/4864309</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/4/1352/4857174</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/5/1614/4917301</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/5/1677/4917303</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/5/1627/4915811</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/5/1641/4864311</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/5/1651/4917306</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/5/1666/4920823</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2011/4864317</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2139/4937355</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2021/4922216</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2034/4922219</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2044/4932764</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2053/4922222</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2064/4868483</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2071/4917309</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2078/4859456</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2086/4857176</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2095/4922223</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2106/4922224</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2113/4937119</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ps/article/97/6/2123/4955669</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +2297,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1745,11 +2576,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F423"/>
+  <dimension ref="A1:F700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F425" sqref="F425"/>
+      <pane ySplit="1" topLeftCell="A656" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B701" sqref="B701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -10217,6 +11048,5546 @@
       </c>
       <c r="F423" t="s">
         <v>455</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" t="s">
+        <v>376</v>
+      </c>
+      <c r="B424">
+        <v>2018</v>
+      </c>
+      <c r="C424">
+        <v>4</v>
+      </c>
+      <c r="D424" t="s">
+        <v>401</v>
+      </c>
+      <c r="E424" t="s">
+        <v>424</v>
+      </c>
+      <c r="F424" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" t="s">
+        <v>376</v>
+      </c>
+      <c r="B425">
+        <v>2018</v>
+      </c>
+      <c r="C425">
+        <v>4</v>
+      </c>
+      <c r="D425" t="s">
+        <v>401</v>
+      </c>
+      <c r="E425" t="s">
+        <v>424</v>
+      </c>
+      <c r="F425" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" t="s">
+        <v>376</v>
+      </c>
+      <c r="B426">
+        <v>2018</v>
+      </c>
+      <c r="C426">
+        <v>4</v>
+      </c>
+      <c r="D426" t="s">
+        <v>380</v>
+      </c>
+      <c r="E426" t="s">
+        <v>447</v>
+      </c>
+      <c r="F426" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" t="s">
+        <v>376</v>
+      </c>
+      <c r="B427">
+        <v>2018</v>
+      </c>
+      <c r="C427">
+        <v>4</v>
+      </c>
+      <c r="D427" t="s">
+        <v>381</v>
+      </c>
+      <c r="E427" t="s">
+        <v>424</v>
+      </c>
+      <c r="F427" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" t="s">
+        <v>376</v>
+      </c>
+      <c r="B428">
+        <v>2018</v>
+      </c>
+      <c r="C428">
+        <v>4</v>
+      </c>
+      <c r="D428" t="s">
+        <v>381</v>
+      </c>
+      <c r="E428" t="s">
+        <v>424</v>
+      </c>
+      <c r="F428" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" t="s">
+        <v>376</v>
+      </c>
+      <c r="B429">
+        <v>2018</v>
+      </c>
+      <c r="C429">
+        <v>4</v>
+      </c>
+      <c r="D429" t="s">
+        <v>381</v>
+      </c>
+      <c r="E429" t="s">
+        <v>424</v>
+      </c>
+      <c r="F429" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" t="s">
+        <v>376</v>
+      </c>
+      <c r="B430">
+        <v>2018</v>
+      </c>
+      <c r="C430">
+        <v>4</v>
+      </c>
+      <c r="D430" t="s">
+        <v>381</v>
+      </c>
+      <c r="E430" t="s">
+        <v>424</v>
+      </c>
+      <c r="F430" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" t="s">
+        <v>376</v>
+      </c>
+      <c r="B431">
+        <v>2018</v>
+      </c>
+      <c r="C431">
+        <v>4</v>
+      </c>
+      <c r="D431" t="s">
+        <v>381</v>
+      </c>
+      <c r="E431" t="s">
+        <v>424</v>
+      </c>
+      <c r="F431" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" t="s">
+        <v>376</v>
+      </c>
+      <c r="B432">
+        <v>2018</v>
+      </c>
+      <c r="C432">
+        <v>4</v>
+      </c>
+      <c r="D432" t="s">
+        <v>381</v>
+      </c>
+      <c r="E432" t="s">
+        <v>424</v>
+      </c>
+      <c r="F432" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" t="s">
+        <v>376</v>
+      </c>
+      <c r="B433">
+        <v>2018</v>
+      </c>
+      <c r="C433">
+        <v>5</v>
+      </c>
+      <c r="D433" t="s">
+        <v>401</v>
+      </c>
+      <c r="E433" t="s">
+        <v>424</v>
+      </c>
+      <c r="F433" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" t="s">
+        <v>376</v>
+      </c>
+      <c r="B434">
+        <v>2018</v>
+      </c>
+      <c r="C434">
+        <v>5</v>
+      </c>
+      <c r="D434" t="s">
+        <v>401</v>
+      </c>
+      <c r="E434" t="s">
+        <v>424</v>
+      </c>
+      <c r="F434" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" t="s">
+        <v>376</v>
+      </c>
+      <c r="B435">
+        <v>2018</v>
+      </c>
+      <c r="C435">
+        <v>5</v>
+      </c>
+      <c r="D435" t="s">
+        <v>401</v>
+      </c>
+      <c r="E435" t="s">
+        <v>424</v>
+      </c>
+      <c r="F435" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" t="s">
+        <v>376</v>
+      </c>
+      <c r="B436">
+        <v>2018</v>
+      </c>
+      <c r="C436">
+        <v>5</v>
+      </c>
+      <c r="D436" t="s">
+        <v>401</v>
+      </c>
+      <c r="E436" t="s">
+        <v>424</v>
+      </c>
+      <c r="F436" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" t="s">
+        <v>376</v>
+      </c>
+      <c r="B437">
+        <v>2018</v>
+      </c>
+      <c r="C437">
+        <v>5</v>
+      </c>
+      <c r="D437" t="s">
+        <v>381</v>
+      </c>
+      <c r="E437" t="s">
+        <v>424</v>
+      </c>
+      <c r="F437" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" t="s">
+        <v>376</v>
+      </c>
+      <c r="B438">
+        <v>2018</v>
+      </c>
+      <c r="C438">
+        <v>5</v>
+      </c>
+      <c r="D438" t="s">
+        <v>381</v>
+      </c>
+      <c r="E438" t="s">
+        <v>424</v>
+      </c>
+      <c r="F438" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" t="s">
+        <v>376</v>
+      </c>
+      <c r="B439">
+        <v>2018</v>
+      </c>
+      <c r="C439">
+        <v>5</v>
+      </c>
+      <c r="D439" t="s">
+        <v>381</v>
+      </c>
+      <c r="E439" t="s">
+        <v>424</v>
+      </c>
+      <c r="F439" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" t="s">
+        <v>376</v>
+      </c>
+      <c r="B440">
+        <v>2018</v>
+      </c>
+      <c r="C440">
+        <v>5</v>
+      </c>
+      <c r="D440" t="s">
+        <v>381</v>
+      </c>
+      <c r="E440" t="s">
+        <v>424</v>
+      </c>
+      <c r="F440" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" t="s">
+        <v>376</v>
+      </c>
+      <c r="B441">
+        <v>2018</v>
+      </c>
+      <c r="C441">
+        <v>5</v>
+      </c>
+      <c r="D441" t="s">
+        <v>401</v>
+      </c>
+      <c r="E441" t="s">
+        <v>447</v>
+      </c>
+      <c r="F441" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" t="s">
+        <v>376</v>
+      </c>
+      <c r="B442">
+        <v>2018</v>
+      </c>
+      <c r="C442">
+        <v>6</v>
+      </c>
+      <c r="D442" t="s">
+        <v>401</v>
+      </c>
+      <c r="E442" t="s">
+        <v>424</v>
+      </c>
+      <c r="F442" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" t="s">
+        <v>376</v>
+      </c>
+      <c r="B443">
+        <v>2018</v>
+      </c>
+      <c r="C443">
+        <v>6</v>
+      </c>
+      <c r="D443" t="s">
+        <v>401</v>
+      </c>
+      <c r="E443" t="s">
+        <v>424</v>
+      </c>
+      <c r="F443" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" t="s">
+        <v>376</v>
+      </c>
+      <c r="B444">
+        <v>2018</v>
+      </c>
+      <c r="C444">
+        <v>6</v>
+      </c>
+      <c r="D444" t="s">
+        <v>401</v>
+      </c>
+      <c r="E444" t="s">
+        <v>424</v>
+      </c>
+      <c r="F444" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" t="s">
+        <v>376</v>
+      </c>
+      <c r="B445">
+        <v>2018</v>
+      </c>
+      <c r="C445">
+        <v>6</v>
+      </c>
+      <c r="D445" t="s">
+        <v>381</v>
+      </c>
+      <c r="E445" t="s">
+        <v>424</v>
+      </c>
+      <c r="F445" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" t="s">
+        <v>376</v>
+      </c>
+      <c r="B446">
+        <v>2018</v>
+      </c>
+      <c r="C446">
+        <v>6</v>
+      </c>
+      <c r="D446" t="s">
+        <v>381</v>
+      </c>
+      <c r="E446" t="s">
+        <v>424</v>
+      </c>
+      <c r="F446" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" t="s">
+        <v>376</v>
+      </c>
+      <c r="B447">
+        <v>2018</v>
+      </c>
+      <c r="C447">
+        <v>6</v>
+      </c>
+      <c r="D447" t="s">
+        <v>401</v>
+      </c>
+      <c r="E447" t="s">
+        <v>424</v>
+      </c>
+      <c r="F447" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" t="s">
+        <v>376</v>
+      </c>
+      <c r="B448">
+        <v>2018</v>
+      </c>
+      <c r="C448">
+        <v>6</v>
+      </c>
+      <c r="D448" t="s">
+        <v>381</v>
+      </c>
+      <c r="E448" t="s">
+        <v>424</v>
+      </c>
+      <c r="F448" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" t="s">
+        <v>376</v>
+      </c>
+      <c r="B449">
+        <v>2018</v>
+      </c>
+      <c r="C449">
+        <v>7</v>
+      </c>
+      <c r="D449" t="s">
+        <v>401</v>
+      </c>
+      <c r="E449" t="s">
+        <v>424</v>
+      </c>
+      <c r="F449" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" t="s">
+        <v>376</v>
+      </c>
+      <c r="B450">
+        <v>2018</v>
+      </c>
+      <c r="C450">
+        <v>7</v>
+      </c>
+      <c r="D450" t="s">
+        <v>401</v>
+      </c>
+      <c r="E450" t="s">
+        <v>424</v>
+      </c>
+      <c r="F450" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" t="s">
+        <v>376</v>
+      </c>
+      <c r="B451">
+        <v>2018</v>
+      </c>
+      <c r="C451">
+        <v>7</v>
+      </c>
+      <c r="D451" t="s">
+        <v>401</v>
+      </c>
+      <c r="E451" t="s">
+        <v>424</v>
+      </c>
+      <c r="F451" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" t="s">
+        <v>376</v>
+      </c>
+      <c r="B452">
+        <v>2018</v>
+      </c>
+      <c r="C452">
+        <v>7</v>
+      </c>
+      <c r="D452" t="s">
+        <v>381</v>
+      </c>
+      <c r="E452" t="s">
+        <v>424</v>
+      </c>
+      <c r="F452" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" t="s">
+        <v>376</v>
+      </c>
+      <c r="B453">
+        <v>2018</v>
+      </c>
+      <c r="C453">
+        <v>7</v>
+      </c>
+      <c r="D453" t="s">
+        <v>381</v>
+      </c>
+      <c r="E453" t="s">
+        <v>424</v>
+      </c>
+      <c r="F453" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" t="s">
+        <v>376</v>
+      </c>
+      <c r="B454">
+        <v>2018</v>
+      </c>
+      <c r="C454">
+        <v>7</v>
+      </c>
+      <c r="D454" t="s">
+        <v>381</v>
+      </c>
+      <c r="E454" t="s">
+        <v>424</v>
+      </c>
+      <c r="F454" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" t="s">
+        <v>385</v>
+      </c>
+      <c r="B455">
+        <v>2018</v>
+      </c>
+      <c r="C455">
+        <v>4</v>
+      </c>
+      <c r="D455" t="s">
+        <v>381</v>
+      </c>
+      <c r="E455" t="s">
+        <v>424</v>
+      </c>
+      <c r="F455" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" t="s">
+        <v>385</v>
+      </c>
+      <c r="B456">
+        <v>2018</v>
+      </c>
+      <c r="C456">
+        <v>4</v>
+      </c>
+      <c r="D456" t="s">
+        <v>381</v>
+      </c>
+      <c r="E456" t="s">
+        <v>424</v>
+      </c>
+      <c r="F456" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" t="s">
+        <v>385</v>
+      </c>
+      <c r="B457">
+        <v>2018</v>
+      </c>
+      <c r="C457">
+        <v>4</v>
+      </c>
+      <c r="D457" t="s">
+        <v>381</v>
+      </c>
+      <c r="E457" t="s">
+        <v>424</v>
+      </c>
+      <c r="F457" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" t="s">
+        <v>385</v>
+      </c>
+      <c r="B458">
+        <v>2018</v>
+      </c>
+      <c r="C458">
+        <v>4</v>
+      </c>
+      <c r="D458" t="s">
+        <v>381</v>
+      </c>
+      <c r="E458" t="s">
+        <v>424</v>
+      </c>
+      <c r="F458" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" t="s">
+        <v>385</v>
+      </c>
+      <c r="B459">
+        <v>2018</v>
+      </c>
+      <c r="C459">
+        <v>4</v>
+      </c>
+      <c r="D459" t="s">
+        <v>401</v>
+      </c>
+      <c r="E459" t="s">
+        <v>424</v>
+      </c>
+      <c r="F459" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" t="s">
+        <v>385</v>
+      </c>
+      <c r="B460">
+        <v>2018</v>
+      </c>
+      <c r="C460">
+        <v>4</v>
+      </c>
+      <c r="D460" t="s">
+        <v>401</v>
+      </c>
+      <c r="E460" t="s">
+        <v>424</v>
+      </c>
+      <c r="F460" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" t="s">
+        <v>385</v>
+      </c>
+      <c r="B461">
+        <v>2018</v>
+      </c>
+      <c r="C461">
+        <v>4</v>
+      </c>
+      <c r="D461" t="s">
+        <v>401</v>
+      </c>
+      <c r="E461" t="s">
+        <v>424</v>
+      </c>
+      <c r="F461" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" t="s">
+        <v>385</v>
+      </c>
+      <c r="B462">
+        <v>2018</v>
+      </c>
+      <c r="C462">
+        <v>4</v>
+      </c>
+      <c r="D462" t="s">
+        <v>401</v>
+      </c>
+      <c r="E462" t="s">
+        <v>424</v>
+      </c>
+      <c r="F462" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" t="s">
+        <v>385</v>
+      </c>
+      <c r="B463">
+        <v>2018</v>
+      </c>
+      <c r="C463">
+        <v>4</v>
+      </c>
+      <c r="D463" t="s">
+        <v>401</v>
+      </c>
+      <c r="E463" t="s">
+        <v>424</v>
+      </c>
+      <c r="F463" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" t="s">
+        <v>385</v>
+      </c>
+      <c r="B464">
+        <v>2018</v>
+      </c>
+      <c r="C464">
+        <v>4</v>
+      </c>
+      <c r="D464" t="s">
+        <v>401</v>
+      </c>
+      <c r="E464" t="s">
+        <v>424</v>
+      </c>
+      <c r="F464" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" t="s">
+        <v>385</v>
+      </c>
+      <c r="B465">
+        <v>2018</v>
+      </c>
+      <c r="C465">
+        <v>4</v>
+      </c>
+      <c r="D465" t="s">
+        <v>401</v>
+      </c>
+      <c r="E465" t="s">
+        <v>424</v>
+      </c>
+      <c r="F465" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" t="s">
+        <v>385</v>
+      </c>
+      <c r="B466">
+        <v>2018</v>
+      </c>
+      <c r="C466">
+        <v>4</v>
+      </c>
+      <c r="D466" t="s">
+        <v>401</v>
+      </c>
+      <c r="E466" t="s">
+        <v>424</v>
+      </c>
+      <c r="F466" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" t="s">
+        <v>385</v>
+      </c>
+      <c r="B467">
+        <v>2018</v>
+      </c>
+      <c r="C467">
+        <v>4</v>
+      </c>
+      <c r="D467" t="s">
+        <v>401</v>
+      </c>
+      <c r="E467" t="s">
+        <v>424</v>
+      </c>
+      <c r="F467" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" t="s">
+        <v>385</v>
+      </c>
+      <c r="B468">
+        <v>2018</v>
+      </c>
+      <c r="C468">
+        <v>4</v>
+      </c>
+      <c r="D468" t="s">
+        <v>380</v>
+      </c>
+      <c r="E468" t="s">
+        <v>424</v>
+      </c>
+      <c r="F468" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" t="s">
+        <v>385</v>
+      </c>
+      <c r="B469">
+        <v>2018</v>
+      </c>
+      <c r="C469">
+        <v>5</v>
+      </c>
+      <c r="D469" t="s">
+        <v>381</v>
+      </c>
+      <c r="E469" t="s">
+        <v>424</v>
+      </c>
+      <c r="F469" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" t="s">
+        <v>385</v>
+      </c>
+      <c r="B470">
+        <v>2018</v>
+      </c>
+      <c r="C470">
+        <v>5</v>
+      </c>
+      <c r="D470" t="s">
+        <v>381</v>
+      </c>
+      <c r="E470" t="s">
+        <v>424</v>
+      </c>
+      <c r="F470" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" t="s">
+        <v>385</v>
+      </c>
+      <c r="B471">
+        <v>2018</v>
+      </c>
+      <c r="C471">
+        <v>5</v>
+      </c>
+      <c r="D471" t="s">
+        <v>381</v>
+      </c>
+      <c r="E471" t="s">
+        <v>424</v>
+      </c>
+      <c r="F471" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472" t="s">
+        <v>385</v>
+      </c>
+      <c r="B472">
+        <v>2018</v>
+      </c>
+      <c r="C472">
+        <v>5</v>
+      </c>
+      <c r="D472" t="s">
+        <v>381</v>
+      </c>
+      <c r="E472" t="s">
+        <v>424</v>
+      </c>
+      <c r="F472" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473" t="s">
+        <v>385</v>
+      </c>
+      <c r="B473">
+        <v>2018</v>
+      </c>
+      <c r="C473">
+        <v>5</v>
+      </c>
+      <c r="D473" t="s">
+        <v>401</v>
+      </c>
+      <c r="E473" t="s">
+        <v>424</v>
+      </c>
+      <c r="F473" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474" t="s">
+        <v>385</v>
+      </c>
+      <c r="B474">
+        <v>2018</v>
+      </c>
+      <c r="C474">
+        <v>5</v>
+      </c>
+      <c r="D474" t="s">
+        <v>401</v>
+      </c>
+      <c r="E474" t="s">
+        <v>424</v>
+      </c>
+      <c r="F474" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" t="s">
+        <v>385</v>
+      </c>
+      <c r="B475">
+        <v>2018</v>
+      </c>
+      <c r="C475">
+        <v>5</v>
+      </c>
+      <c r="D475" t="s">
+        <v>401</v>
+      </c>
+      <c r="E475" t="s">
+        <v>424</v>
+      </c>
+      <c r="F475" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
+      <c r="A476" t="s">
+        <v>385</v>
+      </c>
+      <c r="B476">
+        <v>2018</v>
+      </c>
+      <c r="C476">
+        <v>5</v>
+      </c>
+      <c r="D476" t="s">
+        <v>401</v>
+      </c>
+      <c r="E476" t="s">
+        <v>424</v>
+      </c>
+      <c r="F476" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" t="s">
+        <v>385</v>
+      </c>
+      <c r="B477">
+        <v>2018</v>
+      </c>
+      <c r="C477">
+        <v>5</v>
+      </c>
+      <c r="D477" t="s">
+        <v>401</v>
+      </c>
+      <c r="E477" t="s">
+        <v>424</v>
+      </c>
+      <c r="F477" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" t="s">
+        <v>385</v>
+      </c>
+      <c r="B478">
+        <v>2018</v>
+      </c>
+      <c r="C478">
+        <v>5</v>
+      </c>
+      <c r="D478" t="s">
+        <v>380</v>
+      </c>
+      <c r="E478" t="s">
+        <v>424</v>
+      </c>
+      <c r="F478" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" t="s">
+        <v>385</v>
+      </c>
+      <c r="B479">
+        <v>2018</v>
+      </c>
+      <c r="C479">
+        <v>6</v>
+      </c>
+      <c r="D479" t="s">
+        <v>381</v>
+      </c>
+      <c r="E479" t="s">
+        <v>424</v>
+      </c>
+      <c r="F479" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" t="s">
+        <v>385</v>
+      </c>
+      <c r="B480">
+        <v>2018</v>
+      </c>
+      <c r="C480">
+        <v>6</v>
+      </c>
+      <c r="D480" t="s">
+        <v>381</v>
+      </c>
+      <c r="E480" t="s">
+        <v>424</v>
+      </c>
+      <c r="F480" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" t="s">
+        <v>385</v>
+      </c>
+      <c r="B481">
+        <v>2018</v>
+      </c>
+      <c r="C481">
+        <v>6</v>
+      </c>
+      <c r="D481" t="s">
+        <v>381</v>
+      </c>
+      <c r="E481" t="s">
+        <v>424</v>
+      </c>
+      <c r="F481" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482" t="s">
+        <v>385</v>
+      </c>
+      <c r="B482">
+        <v>2018</v>
+      </c>
+      <c r="C482">
+        <v>6</v>
+      </c>
+      <c r="D482" t="s">
+        <v>381</v>
+      </c>
+      <c r="E482" t="s">
+        <v>424</v>
+      </c>
+      <c r="F482" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483" t="s">
+        <v>385</v>
+      </c>
+      <c r="B483">
+        <v>2018</v>
+      </c>
+      <c r="C483">
+        <v>6</v>
+      </c>
+      <c r="D483" t="s">
+        <v>401</v>
+      </c>
+      <c r="E483" t="s">
+        <v>424</v>
+      </c>
+      <c r="F483" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484" t="s">
+        <v>385</v>
+      </c>
+      <c r="B484">
+        <v>2018</v>
+      </c>
+      <c r="C484">
+        <v>6</v>
+      </c>
+      <c r="D484" t="s">
+        <v>401</v>
+      </c>
+      <c r="E484" t="s">
+        <v>424</v>
+      </c>
+      <c r="F484" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485" t="s">
+        <v>385</v>
+      </c>
+      <c r="B485">
+        <v>2018</v>
+      </c>
+      <c r="C485">
+        <v>6</v>
+      </c>
+      <c r="D485" t="s">
+        <v>401</v>
+      </c>
+      <c r="E485" t="s">
+        <v>424</v>
+      </c>
+      <c r="F485" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486" t="s">
+        <v>385</v>
+      </c>
+      <c r="B486">
+        <v>2018</v>
+      </c>
+      <c r="C486">
+        <v>6</v>
+      </c>
+      <c r="D486" t="s">
+        <v>401</v>
+      </c>
+      <c r="E486" t="s">
+        <v>424</v>
+      </c>
+      <c r="F486" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487" t="s">
+        <v>385</v>
+      </c>
+      <c r="B487">
+        <v>2018</v>
+      </c>
+      <c r="C487">
+        <v>6</v>
+      </c>
+      <c r="D487" t="s">
+        <v>401</v>
+      </c>
+      <c r="E487" t="s">
+        <v>424</v>
+      </c>
+      <c r="F487" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488" t="s">
+        <v>385</v>
+      </c>
+      <c r="B488">
+        <v>2018</v>
+      </c>
+      <c r="C488">
+        <v>6</v>
+      </c>
+      <c r="D488" t="s">
+        <v>401</v>
+      </c>
+      <c r="E488" t="s">
+        <v>424</v>
+      </c>
+      <c r="F488" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489" t="s">
+        <v>385</v>
+      </c>
+      <c r="B489">
+        <v>2018</v>
+      </c>
+      <c r="C489">
+        <v>6</v>
+      </c>
+      <c r="D489" t="s">
+        <v>401</v>
+      </c>
+      <c r="E489" t="s">
+        <v>424</v>
+      </c>
+      <c r="F489" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490" t="s">
+        <v>385</v>
+      </c>
+      <c r="B490">
+        <v>2018</v>
+      </c>
+      <c r="C490">
+        <v>6</v>
+      </c>
+      <c r="D490" t="s">
+        <v>401</v>
+      </c>
+      <c r="E490" t="s">
+        <v>424</v>
+      </c>
+      <c r="F490" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" t="s">
+        <v>385</v>
+      </c>
+      <c r="B491">
+        <v>2018</v>
+      </c>
+      <c r="C491">
+        <v>6</v>
+      </c>
+      <c r="D491" t="s">
+        <v>401</v>
+      </c>
+      <c r="E491" t="s">
+        <v>424</v>
+      </c>
+      <c r="F491" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" t="s">
+        <v>385</v>
+      </c>
+      <c r="B492">
+        <v>2018</v>
+      </c>
+      <c r="C492">
+        <v>6</v>
+      </c>
+      <c r="D492" t="s">
+        <v>401</v>
+      </c>
+      <c r="E492" t="s">
+        <v>424</v>
+      </c>
+      <c r="F492" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" t="s">
+        <v>385</v>
+      </c>
+      <c r="B493">
+        <v>2018</v>
+      </c>
+      <c r="C493">
+        <v>6</v>
+      </c>
+      <c r="D493" t="s">
+        <v>401</v>
+      </c>
+      <c r="E493" t="s">
+        <v>424</v>
+      </c>
+      <c r="F493" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494" t="s">
+        <v>385</v>
+      </c>
+      <c r="B494">
+        <v>2018</v>
+      </c>
+      <c r="C494">
+        <v>6</v>
+      </c>
+      <c r="D494" t="s">
+        <v>380</v>
+      </c>
+      <c r="E494" t="s">
+        <v>424</v>
+      </c>
+      <c r="F494" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495" t="s">
+        <v>385</v>
+      </c>
+      <c r="B495">
+        <v>2018</v>
+      </c>
+      <c r="C495">
+        <v>6</v>
+      </c>
+      <c r="D495" t="s">
+        <v>380</v>
+      </c>
+      <c r="E495" t="s">
+        <v>424</v>
+      </c>
+      <c r="F495" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496" t="s">
+        <v>385</v>
+      </c>
+      <c r="B496">
+        <v>2018</v>
+      </c>
+      <c r="C496">
+        <v>7</v>
+      </c>
+      <c r="D496" t="s">
+        <v>381</v>
+      </c>
+      <c r="E496" t="s">
+        <v>424</v>
+      </c>
+      <c r="F496" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497" t="s">
+        <v>385</v>
+      </c>
+      <c r="B497">
+        <v>2018</v>
+      </c>
+      <c r="C497">
+        <v>7</v>
+      </c>
+      <c r="D497" t="s">
+        <v>381</v>
+      </c>
+      <c r="E497" t="s">
+        <v>424</v>
+      </c>
+      <c r="F497" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" t="s">
+        <v>385</v>
+      </c>
+      <c r="B498">
+        <v>2018</v>
+      </c>
+      <c r="C498">
+        <v>7</v>
+      </c>
+      <c r="D498" t="s">
+        <v>381</v>
+      </c>
+      <c r="E498" t="s">
+        <v>424</v>
+      </c>
+      <c r="F498" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" t="s">
+        <v>385</v>
+      </c>
+      <c r="B499">
+        <v>2018</v>
+      </c>
+      <c r="C499">
+        <v>7</v>
+      </c>
+      <c r="D499" t="s">
+        <v>381</v>
+      </c>
+      <c r="E499" t="s">
+        <v>424</v>
+      </c>
+      <c r="F499" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" t="s">
+        <v>385</v>
+      </c>
+      <c r="B500">
+        <v>2018</v>
+      </c>
+      <c r="C500">
+        <v>7</v>
+      </c>
+      <c r="D500" t="s">
+        <v>381</v>
+      </c>
+      <c r="E500" t="s">
+        <v>424</v>
+      </c>
+      <c r="F500" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" t="s">
+        <v>385</v>
+      </c>
+      <c r="B501">
+        <v>2018</v>
+      </c>
+      <c r="C501">
+        <v>7</v>
+      </c>
+      <c r="D501" t="s">
+        <v>381</v>
+      </c>
+      <c r="E501" t="s">
+        <v>424</v>
+      </c>
+      <c r="F501" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" t="s">
+        <v>385</v>
+      </c>
+      <c r="B502">
+        <v>2018</v>
+      </c>
+      <c r="C502">
+        <v>7</v>
+      </c>
+      <c r="D502" t="s">
+        <v>381</v>
+      </c>
+      <c r="E502" t="s">
+        <v>424</v>
+      </c>
+      <c r="F502" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" t="s">
+        <v>385</v>
+      </c>
+      <c r="B503">
+        <v>2018</v>
+      </c>
+      <c r="C503">
+        <v>7</v>
+      </c>
+      <c r="D503" t="s">
+        <v>381</v>
+      </c>
+      <c r="E503" t="s">
+        <v>424</v>
+      </c>
+      <c r="F503" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" t="s">
+        <v>385</v>
+      </c>
+      <c r="B504">
+        <v>2018</v>
+      </c>
+      <c r="C504">
+        <v>7</v>
+      </c>
+      <c r="D504" t="s">
+        <v>381</v>
+      </c>
+      <c r="E504" t="s">
+        <v>424</v>
+      </c>
+      <c r="F504" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" t="s">
+        <v>385</v>
+      </c>
+      <c r="B505">
+        <v>2018</v>
+      </c>
+      <c r="C505">
+        <v>7</v>
+      </c>
+      <c r="D505" t="s">
+        <v>381</v>
+      </c>
+      <c r="E505" t="s">
+        <v>424</v>
+      </c>
+      <c r="F505" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" t="s">
+        <v>385</v>
+      </c>
+      <c r="B506">
+        <v>2018</v>
+      </c>
+      <c r="C506">
+        <v>7</v>
+      </c>
+      <c r="D506" t="s">
+        <v>381</v>
+      </c>
+      <c r="E506" t="s">
+        <v>424</v>
+      </c>
+      <c r="F506" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507" t="s">
+        <v>385</v>
+      </c>
+      <c r="B507">
+        <v>2018</v>
+      </c>
+      <c r="C507">
+        <v>7</v>
+      </c>
+      <c r="D507" t="s">
+        <v>381</v>
+      </c>
+      <c r="E507" t="s">
+        <v>424</v>
+      </c>
+      <c r="F507" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508" t="s">
+        <v>385</v>
+      </c>
+      <c r="B508">
+        <v>2018</v>
+      </c>
+      <c r="C508">
+        <v>7</v>
+      </c>
+      <c r="D508" t="s">
+        <v>401</v>
+      </c>
+      <c r="E508" t="s">
+        <v>424</v>
+      </c>
+      <c r="F508" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="A509" t="s">
+        <v>385</v>
+      </c>
+      <c r="B509">
+        <v>2018</v>
+      </c>
+      <c r="C509">
+        <v>7</v>
+      </c>
+      <c r="D509" t="s">
+        <v>401</v>
+      </c>
+      <c r="E509" t="s">
+        <v>424</v>
+      </c>
+      <c r="F509" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510" t="s">
+        <v>385</v>
+      </c>
+      <c r="B510">
+        <v>2018</v>
+      </c>
+      <c r="C510">
+        <v>7</v>
+      </c>
+      <c r="D510" t="s">
+        <v>401</v>
+      </c>
+      <c r="E510" t="s">
+        <v>424</v>
+      </c>
+      <c r="F510" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511" t="s">
+        <v>385</v>
+      </c>
+      <c r="B511">
+        <v>2018</v>
+      </c>
+      <c r="C511">
+        <v>7</v>
+      </c>
+      <c r="D511" t="s">
+        <v>401</v>
+      </c>
+      <c r="E511" t="s">
+        <v>424</v>
+      </c>
+      <c r="F511" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512" t="s">
+        <v>385</v>
+      </c>
+      <c r="B512">
+        <v>2018</v>
+      </c>
+      <c r="C512">
+        <v>7</v>
+      </c>
+      <c r="D512" t="s">
+        <v>401</v>
+      </c>
+      <c r="E512" t="s">
+        <v>424</v>
+      </c>
+      <c r="F512" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="A513" t="s">
+        <v>385</v>
+      </c>
+      <c r="B513">
+        <v>2018</v>
+      </c>
+      <c r="C513">
+        <v>7</v>
+      </c>
+      <c r="D513" t="s">
+        <v>401</v>
+      </c>
+      <c r="E513" t="s">
+        <v>424</v>
+      </c>
+      <c r="F513" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="A514" t="s">
+        <v>385</v>
+      </c>
+      <c r="B514">
+        <v>2018</v>
+      </c>
+      <c r="C514">
+        <v>7</v>
+      </c>
+      <c r="D514" t="s">
+        <v>401</v>
+      </c>
+      <c r="E514" t="s">
+        <v>424</v>
+      </c>
+      <c r="F514" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
+      <c r="A515" t="s">
+        <v>385</v>
+      </c>
+      <c r="B515">
+        <v>2018</v>
+      </c>
+      <c r="C515">
+        <v>7</v>
+      </c>
+      <c r="D515" t="s">
+        <v>401</v>
+      </c>
+      <c r="E515" t="s">
+        <v>424</v>
+      </c>
+      <c r="F515" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516" t="s">
+        <v>385</v>
+      </c>
+      <c r="B516">
+        <v>2018</v>
+      </c>
+      <c r="C516">
+        <v>7</v>
+      </c>
+      <c r="D516" t="s">
+        <v>401</v>
+      </c>
+      <c r="E516" t="s">
+        <v>424</v>
+      </c>
+      <c r="F516" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517" t="s">
+        <v>385</v>
+      </c>
+      <c r="B517">
+        <v>2018</v>
+      </c>
+      <c r="C517">
+        <v>7</v>
+      </c>
+      <c r="D517" t="s">
+        <v>380</v>
+      </c>
+      <c r="E517" t="s">
+        <v>424</v>
+      </c>
+      <c r="F517" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6">
+      <c r="A518" t="s">
+        <v>385</v>
+      </c>
+      <c r="B518">
+        <v>2018</v>
+      </c>
+      <c r="C518">
+        <v>7</v>
+      </c>
+      <c r="D518" t="s">
+        <v>380</v>
+      </c>
+      <c r="E518" t="s">
+        <v>424</v>
+      </c>
+      <c r="F518" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
+      <c r="A519" t="s">
+        <v>408</v>
+      </c>
+      <c r="B519">
+        <v>2018</v>
+      </c>
+      <c r="C519">
+        <v>4</v>
+      </c>
+      <c r="D519" t="s">
+        <v>381</v>
+      </c>
+      <c r="E519" t="s">
+        <v>424</v>
+      </c>
+      <c r="F519" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6">
+      <c r="A520" t="s">
+        <v>408</v>
+      </c>
+      <c r="B520">
+        <v>2018</v>
+      </c>
+      <c r="C520">
+        <v>4</v>
+      </c>
+      <c r="D520" t="s">
+        <v>381</v>
+      </c>
+      <c r="E520" t="s">
+        <v>424</v>
+      </c>
+      <c r="F520" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
+      <c r="A521" t="s">
+        <v>408</v>
+      </c>
+      <c r="B521">
+        <v>2018</v>
+      </c>
+      <c r="C521">
+        <v>4</v>
+      </c>
+      <c r="D521" t="s">
+        <v>381</v>
+      </c>
+      <c r="E521" t="s">
+        <v>424</v>
+      </c>
+      <c r="F521" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6">
+      <c r="A522" t="s">
+        <v>408</v>
+      </c>
+      <c r="B522">
+        <v>2018</v>
+      </c>
+      <c r="C522">
+        <v>4</v>
+      </c>
+      <c r="D522" t="s">
+        <v>381</v>
+      </c>
+      <c r="E522" t="s">
+        <v>424</v>
+      </c>
+      <c r="F522" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
+      <c r="A523" t="s">
+        <v>408</v>
+      </c>
+      <c r="B523">
+        <v>2018</v>
+      </c>
+      <c r="C523">
+        <v>4</v>
+      </c>
+      <c r="D523" t="s">
+        <v>381</v>
+      </c>
+      <c r="E523" t="s">
+        <v>424</v>
+      </c>
+      <c r="F523" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
+      <c r="A524" t="s">
+        <v>408</v>
+      </c>
+      <c r="B524">
+        <v>2018</v>
+      </c>
+      <c r="C524">
+        <v>4</v>
+      </c>
+      <c r="D524" t="s">
+        <v>401</v>
+      </c>
+      <c r="E524" t="s">
+        <v>424</v>
+      </c>
+      <c r="F524" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="A525" t="s">
+        <v>408</v>
+      </c>
+      <c r="B525">
+        <v>2018</v>
+      </c>
+      <c r="C525">
+        <v>4</v>
+      </c>
+      <c r="D525" t="s">
+        <v>401</v>
+      </c>
+      <c r="E525" t="s">
+        <v>424</v>
+      </c>
+      <c r="F525" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="A526" t="s">
+        <v>408</v>
+      </c>
+      <c r="B526">
+        <v>2018</v>
+      </c>
+      <c r="C526">
+        <v>4</v>
+      </c>
+      <c r="D526" t="s">
+        <v>401</v>
+      </c>
+      <c r="E526" t="s">
+        <v>424</v>
+      </c>
+      <c r="F526" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="A527" t="s">
+        <v>408</v>
+      </c>
+      <c r="B527">
+        <v>2018</v>
+      </c>
+      <c r="C527">
+        <v>4</v>
+      </c>
+      <c r="D527" t="s">
+        <v>401</v>
+      </c>
+      <c r="E527" t="s">
+        <v>424</v>
+      </c>
+      <c r="F527" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
+      <c r="A528" t="s">
+        <v>408</v>
+      </c>
+      <c r="B528">
+        <v>2018</v>
+      </c>
+      <c r="C528">
+        <v>5</v>
+      </c>
+      <c r="D528" t="s">
+        <v>401</v>
+      </c>
+      <c r="E528" t="s">
+        <v>447</v>
+      </c>
+      <c r="F528" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6">
+      <c r="A529" t="s">
+        <v>408</v>
+      </c>
+      <c r="B529">
+        <v>2018</v>
+      </c>
+      <c r="C529">
+        <v>5</v>
+      </c>
+      <c r="D529" t="s">
+        <v>381</v>
+      </c>
+      <c r="E529" t="s">
+        <v>424</v>
+      </c>
+      <c r="F529" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
+      <c r="A530" t="s">
+        <v>408</v>
+      </c>
+      <c r="B530">
+        <v>2018</v>
+      </c>
+      <c r="C530">
+        <v>5</v>
+      </c>
+      <c r="D530" t="s">
+        <v>381</v>
+      </c>
+      <c r="E530" t="s">
+        <v>424</v>
+      </c>
+      <c r="F530" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
+      <c r="A531" t="s">
+        <v>408</v>
+      </c>
+      <c r="B531">
+        <v>2018</v>
+      </c>
+      <c r="C531">
+        <v>5</v>
+      </c>
+      <c r="D531" t="s">
+        <v>401</v>
+      </c>
+      <c r="E531" t="s">
+        <v>424</v>
+      </c>
+      <c r="F531" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
+      <c r="A532" t="s">
+        <v>408</v>
+      </c>
+      <c r="B532">
+        <v>2018</v>
+      </c>
+      <c r="C532">
+        <v>5</v>
+      </c>
+      <c r="D532" t="s">
+        <v>401</v>
+      </c>
+      <c r="E532" t="s">
+        <v>424</v>
+      </c>
+      <c r="F532" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="A533" t="s">
+        <v>408</v>
+      </c>
+      <c r="B533">
+        <v>2018</v>
+      </c>
+      <c r="C533">
+        <v>5</v>
+      </c>
+      <c r="D533" t="s">
+        <v>401</v>
+      </c>
+      <c r="E533" t="s">
+        <v>424</v>
+      </c>
+      <c r="F533" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
+      <c r="A534" t="s">
+        <v>408</v>
+      </c>
+      <c r="B534">
+        <v>2018</v>
+      </c>
+      <c r="C534">
+        <v>5</v>
+      </c>
+      <c r="D534" t="s">
+        <v>401</v>
+      </c>
+      <c r="E534" t="s">
+        <v>424</v>
+      </c>
+      <c r="F534" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="A535" t="s">
+        <v>408</v>
+      </c>
+      <c r="B535">
+        <v>2018</v>
+      </c>
+      <c r="C535">
+        <v>5</v>
+      </c>
+      <c r="D535" t="s">
+        <v>401</v>
+      </c>
+      <c r="E535" t="s">
+        <v>424</v>
+      </c>
+      <c r="F535" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6">
+      <c r="A536" t="s">
+        <v>408</v>
+      </c>
+      <c r="B536">
+        <v>2018</v>
+      </c>
+      <c r="C536">
+        <v>5</v>
+      </c>
+      <c r="D536" t="s">
+        <v>401</v>
+      </c>
+      <c r="E536" t="s">
+        <v>424</v>
+      </c>
+      <c r="F536" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6">
+      <c r="A537" t="s">
+        <v>408</v>
+      </c>
+      <c r="B537">
+        <v>2018</v>
+      </c>
+      <c r="C537">
+        <v>6</v>
+      </c>
+      <c r="D537" t="s">
+        <v>381</v>
+      </c>
+      <c r="E537" t="s">
+        <v>424</v>
+      </c>
+      <c r="F537" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6">
+      <c r="A538" t="s">
+        <v>408</v>
+      </c>
+      <c r="B538">
+        <v>2018</v>
+      </c>
+      <c r="C538">
+        <v>6</v>
+      </c>
+      <c r="D538" t="s">
+        <v>381</v>
+      </c>
+      <c r="E538" t="s">
+        <v>424</v>
+      </c>
+      <c r="F538" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6">
+      <c r="A539" t="s">
+        <v>408</v>
+      </c>
+      <c r="B539">
+        <v>2018</v>
+      </c>
+      <c r="C539">
+        <v>6</v>
+      </c>
+      <c r="D539" t="s">
+        <v>381</v>
+      </c>
+      <c r="E539" t="s">
+        <v>424</v>
+      </c>
+      <c r="F539" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
+      <c r="A540" t="s">
+        <v>408</v>
+      </c>
+      <c r="B540">
+        <v>2018</v>
+      </c>
+      <c r="C540">
+        <v>6</v>
+      </c>
+      <c r="D540" t="s">
+        <v>401</v>
+      </c>
+      <c r="E540" t="s">
+        <v>424</v>
+      </c>
+      <c r="F540" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6">
+      <c r="A541" t="s">
+        <v>408</v>
+      </c>
+      <c r="B541">
+        <v>2018</v>
+      </c>
+      <c r="C541">
+        <v>6</v>
+      </c>
+      <c r="D541" t="s">
+        <v>401</v>
+      </c>
+      <c r="E541" t="s">
+        <v>424</v>
+      </c>
+      <c r="F541" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6">
+      <c r="A542" t="s">
+        <v>408</v>
+      </c>
+      <c r="B542">
+        <v>2018</v>
+      </c>
+      <c r="C542">
+        <v>6</v>
+      </c>
+      <c r="D542" t="s">
+        <v>401</v>
+      </c>
+      <c r="E542" t="s">
+        <v>424</v>
+      </c>
+      <c r="F542" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6">
+      <c r="A543" t="s">
+        <v>408</v>
+      </c>
+      <c r="B543">
+        <v>2018</v>
+      </c>
+      <c r="C543">
+        <v>6</v>
+      </c>
+      <c r="D543" t="s">
+        <v>401</v>
+      </c>
+      <c r="E543" t="s">
+        <v>424</v>
+      </c>
+      <c r="F543" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6">
+      <c r="A544" t="s">
+        <v>413</v>
+      </c>
+      <c r="B544">
+        <v>2018</v>
+      </c>
+      <c r="C544">
+        <v>4</v>
+      </c>
+      <c r="D544" t="s">
+        <v>401</v>
+      </c>
+      <c r="E544" t="s">
+        <v>424</v>
+      </c>
+      <c r="F544" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6">
+      <c r="A545" t="s">
+        <v>413</v>
+      </c>
+      <c r="B545">
+        <v>2018</v>
+      </c>
+      <c r="C545">
+        <v>4</v>
+      </c>
+      <c r="D545" t="s">
+        <v>401</v>
+      </c>
+      <c r="E545" t="s">
+        <v>424</v>
+      </c>
+      <c r="F545" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6">
+      <c r="A546" t="s">
+        <v>413</v>
+      </c>
+      <c r="B546">
+        <v>2018</v>
+      </c>
+      <c r="C546">
+        <v>4</v>
+      </c>
+      <c r="D546" t="s">
+        <v>381</v>
+      </c>
+      <c r="E546" t="s">
+        <v>424</v>
+      </c>
+      <c r="F546" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6">
+      <c r="A547" t="s">
+        <v>413</v>
+      </c>
+      <c r="B547">
+        <v>2018</v>
+      </c>
+      <c r="C547">
+        <v>4</v>
+      </c>
+      <c r="D547" t="s">
+        <v>381</v>
+      </c>
+      <c r="E547" t="s">
+        <v>424</v>
+      </c>
+      <c r="F547" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6">
+      <c r="A548" t="s">
+        <v>413</v>
+      </c>
+      <c r="B548">
+        <v>2018</v>
+      </c>
+      <c r="C548">
+        <v>4</v>
+      </c>
+      <c r="D548" t="s">
+        <v>401</v>
+      </c>
+      <c r="E548" t="s">
+        <v>424</v>
+      </c>
+      <c r="F548" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6">
+      <c r="A549" t="s">
+        <v>413</v>
+      </c>
+      <c r="B549">
+        <v>2018</v>
+      </c>
+      <c r="C549">
+        <v>4</v>
+      </c>
+      <c r="D549" t="s">
+        <v>401</v>
+      </c>
+      <c r="E549" t="s">
+        <v>424</v>
+      </c>
+      <c r="F549" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6">
+      <c r="A550" t="s">
+        <v>413</v>
+      </c>
+      <c r="B550">
+        <v>2018</v>
+      </c>
+      <c r="C550">
+        <v>4</v>
+      </c>
+      <c r="D550" t="s">
+        <v>401</v>
+      </c>
+      <c r="E550" t="s">
+        <v>424</v>
+      </c>
+      <c r="F550" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6">
+      <c r="A551" t="s">
+        <v>413</v>
+      </c>
+      <c r="B551">
+        <v>2018</v>
+      </c>
+      <c r="C551">
+        <v>4</v>
+      </c>
+      <c r="D551" t="s">
+        <v>381</v>
+      </c>
+      <c r="E551" t="s">
+        <v>424</v>
+      </c>
+      <c r="F551" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6">
+      <c r="A552" t="s">
+        <v>413</v>
+      </c>
+      <c r="B552">
+        <v>2018</v>
+      </c>
+      <c r="C552">
+        <v>4</v>
+      </c>
+      <c r="D552" t="s">
+        <v>381</v>
+      </c>
+      <c r="E552" t="s">
+        <v>424</v>
+      </c>
+      <c r="F552" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6">
+      <c r="A553" t="s">
+        <v>413</v>
+      </c>
+      <c r="B553">
+        <v>2018</v>
+      </c>
+      <c r="C553">
+        <v>4</v>
+      </c>
+      <c r="D553" t="s">
+        <v>381</v>
+      </c>
+      <c r="E553" t="s">
+        <v>424</v>
+      </c>
+      <c r="F553" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="A554" t="s">
+        <v>413</v>
+      </c>
+      <c r="B554">
+        <v>2018</v>
+      </c>
+      <c r="C554">
+        <v>4</v>
+      </c>
+      <c r="D554" t="s">
+        <v>381</v>
+      </c>
+      <c r="E554" t="s">
+        <v>424</v>
+      </c>
+      <c r="F554" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6">
+      <c r="A555" t="s">
+        <v>413</v>
+      </c>
+      <c r="B555">
+        <v>2018</v>
+      </c>
+      <c r="C555">
+        <v>4</v>
+      </c>
+      <c r="D555" t="s">
+        <v>380</v>
+      </c>
+      <c r="E555" t="s">
+        <v>424</v>
+      </c>
+      <c r="F555" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6">
+      <c r="A556" t="s">
+        <v>413</v>
+      </c>
+      <c r="B556">
+        <v>2018</v>
+      </c>
+      <c r="C556">
+        <v>4</v>
+      </c>
+      <c r="D556" t="s">
+        <v>380</v>
+      </c>
+      <c r="E556" t="s">
+        <v>424</v>
+      </c>
+      <c r="F556" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6">
+      <c r="A557" t="s">
+        <v>413</v>
+      </c>
+      <c r="B557">
+        <v>2018</v>
+      </c>
+      <c r="C557">
+        <v>4</v>
+      </c>
+      <c r="D557" t="s">
+        <v>380</v>
+      </c>
+      <c r="E557" t="s">
+        <v>424</v>
+      </c>
+      <c r="F557" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6">
+      <c r="A558" t="s">
+        <v>413</v>
+      </c>
+      <c r="B558">
+        <v>2018</v>
+      </c>
+      <c r="C558">
+        <v>5</v>
+      </c>
+      <c r="D558" t="s">
+        <v>381</v>
+      </c>
+      <c r="E558" t="s">
+        <v>424</v>
+      </c>
+      <c r="F558" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6">
+      <c r="A559" t="s">
+        <v>413</v>
+      </c>
+      <c r="B559">
+        <v>2018</v>
+      </c>
+      <c r="C559">
+        <v>5</v>
+      </c>
+      <c r="D559" t="s">
+        <v>401</v>
+      </c>
+      <c r="E559" t="s">
+        <v>424</v>
+      </c>
+      <c r="F559" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6">
+      <c r="A560" t="s">
+        <v>413</v>
+      </c>
+      <c r="B560">
+        <v>2018</v>
+      </c>
+      <c r="C560">
+        <v>5</v>
+      </c>
+      <c r="D560" t="s">
+        <v>401</v>
+      </c>
+      <c r="E560" t="s">
+        <v>424</v>
+      </c>
+      <c r="F560" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6">
+      <c r="A561" t="s">
+        <v>413</v>
+      </c>
+      <c r="B561">
+        <v>2018</v>
+      </c>
+      <c r="C561">
+        <v>5</v>
+      </c>
+      <c r="D561" t="s">
+        <v>401</v>
+      </c>
+      <c r="E561" t="s">
+        <v>424</v>
+      </c>
+      <c r="F561" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6">
+      <c r="A562" t="s">
+        <v>413</v>
+      </c>
+      <c r="B562">
+        <v>2018</v>
+      </c>
+      <c r="C562">
+        <v>5</v>
+      </c>
+      <c r="D562" t="s">
+        <v>401</v>
+      </c>
+      <c r="E562" t="s">
+        <v>424</v>
+      </c>
+      <c r="F562" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6">
+      <c r="A563" t="s">
+        <v>413</v>
+      </c>
+      <c r="B563">
+        <v>2018</v>
+      </c>
+      <c r="C563">
+        <v>5</v>
+      </c>
+      <c r="D563" t="s">
+        <v>401</v>
+      </c>
+      <c r="E563" t="s">
+        <v>424</v>
+      </c>
+      <c r="F563" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6">
+      <c r="A564" t="s">
+        <v>413</v>
+      </c>
+      <c r="B564">
+        <v>2018</v>
+      </c>
+      <c r="C564">
+        <v>5</v>
+      </c>
+      <c r="D564" t="s">
+        <v>401</v>
+      </c>
+      <c r="E564" t="s">
+        <v>424</v>
+      </c>
+      <c r="F564" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6">
+      <c r="A565" t="s">
+        <v>413</v>
+      </c>
+      <c r="B565">
+        <v>2018</v>
+      </c>
+      <c r="C565">
+        <v>5</v>
+      </c>
+      <c r="D565" t="s">
+        <v>401</v>
+      </c>
+      <c r="E565" t="s">
+        <v>424</v>
+      </c>
+      <c r="F565" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6">
+      <c r="A566" t="s">
+        <v>413</v>
+      </c>
+      <c r="B566">
+        <v>2018</v>
+      </c>
+      <c r="C566">
+        <v>5</v>
+      </c>
+      <c r="D566" t="s">
+        <v>401</v>
+      </c>
+      <c r="E566" t="s">
+        <v>424</v>
+      </c>
+      <c r="F566" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6">
+      <c r="A567" t="s">
+        <v>413</v>
+      </c>
+      <c r="B567">
+        <v>2018</v>
+      </c>
+      <c r="C567">
+        <v>5</v>
+      </c>
+      <c r="D567" t="s">
+        <v>381</v>
+      </c>
+      <c r="E567" t="s">
+        <v>424</v>
+      </c>
+      <c r="F567" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6">
+      <c r="A568" t="s">
+        <v>413</v>
+      </c>
+      <c r="B568">
+        <v>2018</v>
+      </c>
+      <c r="C568">
+        <v>5</v>
+      </c>
+      <c r="D568" t="s">
+        <v>381</v>
+      </c>
+      <c r="E568" t="s">
+        <v>424</v>
+      </c>
+      <c r="F568" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6">
+      <c r="A569" t="s">
+        <v>413</v>
+      </c>
+      <c r="B569">
+        <v>2018</v>
+      </c>
+      <c r="C569">
+        <v>5</v>
+      </c>
+      <c r="D569" t="s">
+        <v>381</v>
+      </c>
+      <c r="E569" t="s">
+        <v>424</v>
+      </c>
+      <c r="F569" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6">
+      <c r="A570" t="s">
+        <v>413</v>
+      </c>
+      <c r="B570">
+        <v>2018</v>
+      </c>
+      <c r="C570">
+        <v>5</v>
+      </c>
+      <c r="D570" t="s">
+        <v>381</v>
+      </c>
+      <c r="E570" t="s">
+        <v>424</v>
+      </c>
+      <c r="F570" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6">
+      <c r="A571" t="s">
+        <v>413</v>
+      </c>
+      <c r="B571">
+        <v>2018</v>
+      </c>
+      <c r="C571">
+        <v>5</v>
+      </c>
+      <c r="D571" t="s">
+        <v>381</v>
+      </c>
+      <c r="E571" t="s">
+        <v>424</v>
+      </c>
+      <c r="F571" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6">
+      <c r="A572" t="s">
+        <v>413</v>
+      </c>
+      <c r="B572">
+        <v>2018</v>
+      </c>
+      <c r="C572">
+        <v>5</v>
+      </c>
+      <c r="D572" t="s">
+        <v>381</v>
+      </c>
+      <c r="E572" t="s">
+        <v>424</v>
+      </c>
+      <c r="F572" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6">
+      <c r="A573" t="s">
+        <v>413</v>
+      </c>
+      <c r="B573">
+        <v>2018</v>
+      </c>
+      <c r="C573">
+        <v>5</v>
+      </c>
+      <c r="D573" t="s">
+        <v>381</v>
+      </c>
+      <c r="E573" t="s">
+        <v>424</v>
+      </c>
+      <c r="F573" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6">
+      <c r="A574" t="s">
+        <v>413</v>
+      </c>
+      <c r="B574">
+        <v>2018</v>
+      </c>
+      <c r="C574">
+        <v>5</v>
+      </c>
+      <c r="D574" t="s">
+        <v>381</v>
+      </c>
+      <c r="E574" t="s">
+        <v>424</v>
+      </c>
+      <c r="F574" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6">
+      <c r="A575" t="s">
+        <v>413</v>
+      </c>
+      <c r="B575">
+        <v>2018</v>
+      </c>
+      <c r="C575">
+        <v>6</v>
+      </c>
+      <c r="D575" t="s">
+        <v>401</v>
+      </c>
+      <c r="E575" t="s">
+        <v>424</v>
+      </c>
+      <c r="F575" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6">
+      <c r="A576" t="s">
+        <v>413</v>
+      </c>
+      <c r="B576">
+        <v>2018</v>
+      </c>
+      <c r="C576">
+        <v>6</v>
+      </c>
+      <c r="D576" t="s">
+        <v>401</v>
+      </c>
+      <c r="E576" t="s">
+        <v>424</v>
+      </c>
+      <c r="F576" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6">
+      <c r="A577" t="s">
+        <v>413</v>
+      </c>
+      <c r="B577">
+        <v>2018</v>
+      </c>
+      <c r="C577">
+        <v>6</v>
+      </c>
+      <c r="D577" t="s">
+        <v>401</v>
+      </c>
+      <c r="E577" t="s">
+        <v>424</v>
+      </c>
+      <c r="F577" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6">
+      <c r="A578" t="s">
+        <v>413</v>
+      </c>
+      <c r="B578">
+        <v>2018</v>
+      </c>
+      <c r="C578">
+        <v>6</v>
+      </c>
+      <c r="D578" t="s">
+        <v>401</v>
+      </c>
+      <c r="E578" t="s">
+        <v>424</v>
+      </c>
+      <c r="F578" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6">
+      <c r="A579" t="s">
+        <v>413</v>
+      </c>
+      <c r="B579">
+        <v>2018</v>
+      </c>
+      <c r="C579">
+        <v>6</v>
+      </c>
+      <c r="D579" t="s">
+        <v>401</v>
+      </c>
+      <c r="E579" t="s">
+        <v>424</v>
+      </c>
+      <c r="F579" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6">
+      <c r="A580" t="s">
+        <v>413</v>
+      </c>
+      <c r="B580">
+        <v>2018</v>
+      </c>
+      <c r="C580">
+        <v>6</v>
+      </c>
+      <c r="D580" t="s">
+        <v>401</v>
+      </c>
+      <c r="E580" t="s">
+        <v>424</v>
+      </c>
+      <c r="F580" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6">
+      <c r="A581" t="s">
+        <v>413</v>
+      </c>
+      <c r="B581">
+        <v>2018</v>
+      </c>
+      <c r="C581">
+        <v>6</v>
+      </c>
+      <c r="D581" t="s">
+        <v>401</v>
+      </c>
+      <c r="E581" t="s">
+        <v>424</v>
+      </c>
+      <c r="F581" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6">
+      <c r="A582" t="s">
+        <v>413</v>
+      </c>
+      <c r="B582">
+        <v>2018</v>
+      </c>
+      <c r="C582">
+        <v>6</v>
+      </c>
+      <c r="D582" t="s">
+        <v>401</v>
+      </c>
+      <c r="E582" t="s">
+        <v>424</v>
+      </c>
+      <c r="F582" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6">
+      <c r="A583" t="s">
+        <v>413</v>
+      </c>
+      <c r="B583">
+        <v>2018</v>
+      </c>
+      <c r="C583">
+        <v>6</v>
+      </c>
+      <c r="D583" t="s">
+        <v>401</v>
+      </c>
+      <c r="E583" t="s">
+        <v>424</v>
+      </c>
+      <c r="F583" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6">
+      <c r="A584" t="s">
+        <v>413</v>
+      </c>
+      <c r="B584">
+        <v>2018</v>
+      </c>
+      <c r="C584">
+        <v>6</v>
+      </c>
+      <c r="D584" t="s">
+        <v>401</v>
+      </c>
+      <c r="E584" t="s">
+        <v>424</v>
+      </c>
+      <c r="F584" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6">
+      <c r="A585" t="s">
+        <v>413</v>
+      </c>
+      <c r="B585">
+        <v>2018</v>
+      </c>
+      <c r="C585">
+        <v>6</v>
+      </c>
+      <c r="D585" t="s">
+        <v>401</v>
+      </c>
+      <c r="E585" t="s">
+        <v>424</v>
+      </c>
+      <c r="F585" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6">
+      <c r="A586" t="s">
+        <v>413</v>
+      </c>
+      <c r="B586">
+        <v>2018</v>
+      </c>
+      <c r="C586">
+        <v>6</v>
+      </c>
+      <c r="D586" t="s">
+        <v>401</v>
+      </c>
+      <c r="E586" t="s">
+        <v>424</v>
+      </c>
+      <c r="F586" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6">
+      <c r="A587" t="s">
+        <v>413</v>
+      </c>
+      <c r="B587">
+        <v>2018</v>
+      </c>
+      <c r="C587">
+        <v>6</v>
+      </c>
+      <c r="D587" t="s">
+        <v>381</v>
+      </c>
+      <c r="E587" t="s">
+        <v>424</v>
+      </c>
+      <c r="F587" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6">
+      <c r="A588" t="s">
+        <v>413</v>
+      </c>
+      <c r="B588">
+        <v>2018</v>
+      </c>
+      <c r="C588">
+        <v>6</v>
+      </c>
+      <c r="D588" t="s">
+        <v>381</v>
+      </c>
+      <c r="E588" t="s">
+        <v>424</v>
+      </c>
+      <c r="F588" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6">
+      <c r="A589" t="s">
+        <v>413</v>
+      </c>
+      <c r="B589">
+        <v>2018</v>
+      </c>
+      <c r="C589">
+        <v>6</v>
+      </c>
+      <c r="D589" t="s">
+        <v>381</v>
+      </c>
+      <c r="E589" t="s">
+        <v>424</v>
+      </c>
+      <c r="F589" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6">
+      <c r="A590" t="s">
+        <v>413</v>
+      </c>
+      <c r="B590">
+        <v>2018</v>
+      </c>
+      <c r="C590">
+        <v>6</v>
+      </c>
+      <c r="D590" t="s">
+        <v>381</v>
+      </c>
+      <c r="E590" t="s">
+        <v>424</v>
+      </c>
+      <c r="F590" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6">
+      <c r="A591" t="s">
+        <v>413</v>
+      </c>
+      <c r="B591">
+        <v>2018</v>
+      </c>
+      <c r="C591">
+        <v>6</v>
+      </c>
+      <c r="D591" t="s">
+        <v>381</v>
+      </c>
+      <c r="E591" t="s">
+        <v>424</v>
+      </c>
+      <c r="F591" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6">
+      <c r="A592" t="s">
+        <v>413</v>
+      </c>
+      <c r="B592">
+        <v>2018</v>
+      </c>
+      <c r="C592">
+        <v>6</v>
+      </c>
+      <c r="D592" t="s">
+        <v>381</v>
+      </c>
+      <c r="E592" t="s">
+        <v>424</v>
+      </c>
+      <c r="F592" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6">
+      <c r="A593" t="s">
+        <v>425</v>
+      </c>
+      <c r="B593">
+        <v>2018</v>
+      </c>
+      <c r="C593">
+        <v>4</v>
+      </c>
+      <c r="D593" t="s">
+        <v>381</v>
+      </c>
+      <c r="E593" t="s">
+        <v>447</v>
+      </c>
+      <c r="F593" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6">
+      <c r="A594" t="s">
+        <v>425</v>
+      </c>
+      <c r="B594">
+        <v>2018</v>
+      </c>
+      <c r="C594">
+        <v>4</v>
+      </c>
+      <c r="D594" t="s">
+        <v>381</v>
+      </c>
+      <c r="E594" t="s">
+        <v>424</v>
+      </c>
+      <c r="F594" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6">
+      <c r="A595" t="s">
+        <v>425</v>
+      </c>
+      <c r="B595">
+        <v>2018</v>
+      </c>
+      <c r="C595">
+        <v>4</v>
+      </c>
+      <c r="D595" t="s">
+        <v>381</v>
+      </c>
+      <c r="E595" t="s">
+        <v>424</v>
+      </c>
+      <c r="F595" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6">
+      <c r="A596" t="s">
+        <v>425</v>
+      </c>
+      <c r="B596">
+        <v>2018</v>
+      </c>
+      <c r="C596">
+        <v>4</v>
+      </c>
+      <c r="D596" t="s">
+        <v>381</v>
+      </c>
+      <c r="E596" t="s">
+        <v>424</v>
+      </c>
+      <c r="F596" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6">
+      <c r="A597" t="s">
+        <v>425</v>
+      </c>
+      <c r="B597">
+        <v>2018</v>
+      </c>
+      <c r="C597">
+        <v>4</v>
+      </c>
+      <c r="D597" t="s">
+        <v>381</v>
+      </c>
+      <c r="E597" t="s">
+        <v>424</v>
+      </c>
+      <c r="F597" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6">
+      <c r="A598" t="s">
+        <v>425</v>
+      </c>
+      <c r="B598">
+        <v>2018</v>
+      </c>
+      <c r="C598">
+        <v>4</v>
+      </c>
+      <c r="D598" t="s">
+        <v>381</v>
+      </c>
+      <c r="E598" t="s">
+        <v>424</v>
+      </c>
+      <c r="F598" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6">
+      <c r="A599" t="s">
+        <v>425</v>
+      </c>
+      <c r="B599">
+        <v>2018</v>
+      </c>
+      <c r="C599">
+        <v>4</v>
+      </c>
+      <c r="D599" t="s">
+        <v>381</v>
+      </c>
+      <c r="E599" t="s">
+        <v>424</v>
+      </c>
+      <c r="F599" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6">
+      <c r="A600" t="s">
+        <v>425</v>
+      </c>
+      <c r="B600">
+        <v>2018</v>
+      </c>
+      <c r="C600">
+        <v>4</v>
+      </c>
+      <c r="D600" t="s">
+        <v>381</v>
+      </c>
+      <c r="E600" t="s">
+        <v>424</v>
+      </c>
+      <c r="F600" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6">
+      <c r="A601" t="s">
+        <v>425</v>
+      </c>
+      <c r="B601">
+        <v>2018</v>
+      </c>
+      <c r="C601">
+        <v>4</v>
+      </c>
+      <c r="D601" t="s">
+        <v>381</v>
+      </c>
+      <c r="E601" t="s">
+        <v>424</v>
+      </c>
+      <c r="F601" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6">
+      <c r="A602" t="s">
+        <v>425</v>
+      </c>
+      <c r="B602">
+        <v>2018</v>
+      </c>
+      <c r="C602">
+        <v>4</v>
+      </c>
+      <c r="D602" t="s">
+        <v>381</v>
+      </c>
+      <c r="E602" t="s">
+        <v>424</v>
+      </c>
+      <c r="F602" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6">
+      <c r="A603" t="s">
+        <v>425</v>
+      </c>
+      <c r="B603">
+        <v>2018</v>
+      </c>
+      <c r="C603">
+        <v>4</v>
+      </c>
+      <c r="D603" t="s">
+        <v>381</v>
+      </c>
+      <c r="E603" t="s">
+        <v>424</v>
+      </c>
+      <c r="F603" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6">
+      <c r="A604" t="s">
+        <v>425</v>
+      </c>
+      <c r="B604">
+        <v>2018</v>
+      </c>
+      <c r="C604">
+        <v>5</v>
+      </c>
+      <c r="D604" t="s">
+        <v>381</v>
+      </c>
+      <c r="E604" t="s">
+        <v>447</v>
+      </c>
+      <c r="F604" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6">
+      <c r="A605" t="s">
+        <v>425</v>
+      </c>
+      <c r="B605">
+        <v>2018</v>
+      </c>
+      <c r="C605">
+        <v>5</v>
+      </c>
+      <c r="D605" t="s">
+        <v>381</v>
+      </c>
+      <c r="E605" t="s">
+        <v>447</v>
+      </c>
+      <c r="F605" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6">
+      <c r="A606" t="s">
+        <v>425</v>
+      </c>
+      <c r="B606">
+        <v>2018</v>
+      </c>
+      <c r="C606">
+        <v>5</v>
+      </c>
+      <c r="D606" t="s">
+        <v>381</v>
+      </c>
+      <c r="E606" t="s">
+        <v>447</v>
+      </c>
+      <c r="F606" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6">
+      <c r="A607" t="s">
+        <v>425</v>
+      </c>
+      <c r="B607">
+        <v>2018</v>
+      </c>
+      <c r="C607">
+        <v>5</v>
+      </c>
+      <c r="D607" t="s">
+        <v>381</v>
+      </c>
+      <c r="E607" t="s">
+        <v>447</v>
+      </c>
+      <c r="F607" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6">
+      <c r="A608" t="s">
+        <v>425</v>
+      </c>
+      <c r="B608">
+        <v>2018</v>
+      </c>
+      <c r="C608">
+        <v>5</v>
+      </c>
+      <c r="D608" t="s">
+        <v>381</v>
+      </c>
+      <c r="E608" t="s">
+        <v>447</v>
+      </c>
+      <c r="F608" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6">
+      <c r="A609" t="s">
+        <v>425</v>
+      </c>
+      <c r="B609">
+        <v>2018</v>
+      </c>
+      <c r="C609">
+        <v>5</v>
+      </c>
+      <c r="D609" t="s">
+        <v>381</v>
+      </c>
+      <c r="E609" t="s">
+        <v>447</v>
+      </c>
+      <c r="F609" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6">
+      <c r="A610" t="s">
+        <v>425</v>
+      </c>
+      <c r="B610">
+        <v>2018</v>
+      </c>
+      <c r="C610">
+        <v>5</v>
+      </c>
+      <c r="D610" t="s">
+        <v>381</v>
+      </c>
+      <c r="E610" t="s">
+        <v>447</v>
+      </c>
+      <c r="F610" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6">
+      <c r="A611" t="s">
+        <v>425</v>
+      </c>
+      <c r="B611">
+        <v>2018</v>
+      </c>
+      <c r="C611">
+        <v>5</v>
+      </c>
+      <c r="D611" t="s">
+        <v>381</v>
+      </c>
+      <c r="E611" t="s">
+        <v>447</v>
+      </c>
+      <c r="F611" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6">
+      <c r="A612" t="s">
+        <v>425</v>
+      </c>
+      <c r="B612">
+        <v>2018</v>
+      </c>
+      <c r="C612">
+        <v>5</v>
+      </c>
+      <c r="D612" t="s">
+        <v>381</v>
+      </c>
+      <c r="E612" t="s">
+        <v>447</v>
+      </c>
+      <c r="F612" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6">
+      <c r="A613" t="s">
+        <v>425</v>
+      </c>
+      <c r="B613">
+        <v>2018</v>
+      </c>
+      <c r="C613">
+        <v>5</v>
+      </c>
+      <c r="D613" t="s">
+        <v>381</v>
+      </c>
+      <c r="E613" t="s">
+        <v>447</v>
+      </c>
+      <c r="F613" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6">
+      <c r="A614" t="s">
+        <v>425</v>
+      </c>
+      <c r="B614">
+        <v>2018</v>
+      </c>
+      <c r="C614">
+        <v>5</v>
+      </c>
+      <c r="D614" t="s">
+        <v>381</v>
+      </c>
+      <c r="E614" t="s">
+        <v>447</v>
+      </c>
+      <c r="F614" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6">
+      <c r="A615" t="s">
+        <v>425</v>
+      </c>
+      <c r="B615">
+        <v>2018</v>
+      </c>
+      <c r="C615">
+        <v>5</v>
+      </c>
+      <c r="D615" t="s">
+        <v>381</v>
+      </c>
+      <c r="E615" t="s">
+        <v>447</v>
+      </c>
+      <c r="F615" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6">
+      <c r="A616" t="s">
+        <v>425</v>
+      </c>
+      <c r="B616">
+        <v>2018</v>
+      </c>
+      <c r="C616">
+        <v>5</v>
+      </c>
+      <c r="D616" t="s">
+        <v>381</v>
+      </c>
+      <c r="E616" t="s">
+        <v>447</v>
+      </c>
+      <c r="F616" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6">
+      <c r="A617" t="s">
+        <v>425</v>
+      </c>
+      <c r="B617">
+        <v>2018</v>
+      </c>
+      <c r="C617">
+        <v>5</v>
+      </c>
+      <c r="D617" t="s">
+        <v>381</v>
+      </c>
+      <c r="E617" t="s">
+        <v>424</v>
+      </c>
+      <c r="F617" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6">
+      <c r="A618" t="s">
+        <v>425</v>
+      </c>
+      <c r="B618">
+        <v>2018</v>
+      </c>
+      <c r="C618">
+        <v>5</v>
+      </c>
+      <c r="D618" t="s">
+        <v>381</v>
+      </c>
+      <c r="E618" t="s">
+        <v>424</v>
+      </c>
+      <c r="F618" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6">
+      <c r="A619" t="s">
+        <v>425</v>
+      </c>
+      <c r="B619">
+        <v>2018</v>
+      </c>
+      <c r="C619">
+        <v>5</v>
+      </c>
+      <c r="D619" t="s">
+        <v>381</v>
+      </c>
+      <c r="E619" t="s">
+        <v>424</v>
+      </c>
+      <c r="F619" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6">
+      <c r="A620" t="s">
+        <v>425</v>
+      </c>
+      <c r="B620">
+        <v>2018</v>
+      </c>
+      <c r="C620">
+        <v>5</v>
+      </c>
+      <c r="D620" t="s">
+        <v>381</v>
+      </c>
+      <c r="E620" t="s">
+        <v>424</v>
+      </c>
+      <c r="F620" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6">
+      <c r="A621" t="s">
+        <v>425</v>
+      </c>
+      <c r="B621">
+        <v>2018</v>
+      </c>
+      <c r="C621">
+        <v>5</v>
+      </c>
+      <c r="D621" t="s">
+        <v>381</v>
+      </c>
+      <c r="E621" t="s">
+        <v>424</v>
+      </c>
+      <c r="F621" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6">
+      <c r="A622" t="s">
+        <v>425</v>
+      </c>
+      <c r="B622">
+        <v>2018</v>
+      </c>
+      <c r="C622">
+        <v>5</v>
+      </c>
+      <c r="D622" t="s">
+        <v>381</v>
+      </c>
+      <c r="E622" t="s">
+        <v>424</v>
+      </c>
+      <c r="F622" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6">
+      <c r="A623" t="s">
+        <v>425</v>
+      </c>
+      <c r="B623">
+        <v>2018</v>
+      </c>
+      <c r="C623">
+        <v>5</v>
+      </c>
+      <c r="D623" t="s">
+        <v>381</v>
+      </c>
+      <c r="E623" t="s">
+        <v>424</v>
+      </c>
+      <c r="F623" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6">
+      <c r="A624" t="s">
+        <v>425</v>
+      </c>
+      <c r="B624">
+        <v>2018</v>
+      </c>
+      <c r="C624">
+        <v>5</v>
+      </c>
+      <c r="D624" t="s">
+        <v>381</v>
+      </c>
+      <c r="E624" t="s">
+        <v>424</v>
+      </c>
+      <c r="F624" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6">
+      <c r="A625" t="s">
+        <v>425</v>
+      </c>
+      <c r="B625">
+        <v>2018</v>
+      </c>
+      <c r="C625">
+        <v>5</v>
+      </c>
+      <c r="D625" t="s">
+        <v>381</v>
+      </c>
+      <c r="E625" t="s">
+        <v>424</v>
+      </c>
+      <c r="F625" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6">
+      <c r="A626" t="s">
+        <v>425</v>
+      </c>
+      <c r="B626">
+        <v>2018</v>
+      </c>
+      <c r="C626">
+        <v>5</v>
+      </c>
+      <c r="D626" t="s">
+        <v>381</v>
+      </c>
+      <c r="E626" t="s">
+        <v>424</v>
+      </c>
+      <c r="F626" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6">
+      <c r="A627" t="s">
+        <v>425</v>
+      </c>
+      <c r="B627">
+        <v>2018</v>
+      </c>
+      <c r="C627">
+        <v>6</v>
+      </c>
+      <c r="D627" t="s">
+        <v>381</v>
+      </c>
+      <c r="E627" t="s">
+        <v>447</v>
+      </c>
+      <c r="F627" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6">
+      <c r="A628" t="s">
+        <v>425</v>
+      </c>
+      <c r="B628">
+        <v>2018</v>
+      </c>
+      <c r="C628">
+        <v>6</v>
+      </c>
+      <c r="D628" t="s">
+        <v>381</v>
+      </c>
+      <c r="E628" t="s">
+        <v>447</v>
+      </c>
+      <c r="F628" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6">
+      <c r="A629" t="s">
+        <v>425</v>
+      </c>
+      <c r="B629">
+        <v>2018</v>
+      </c>
+      <c r="C629">
+        <v>6</v>
+      </c>
+      <c r="D629" t="s">
+        <v>381</v>
+      </c>
+      <c r="E629" t="s">
+        <v>424</v>
+      </c>
+      <c r="F629" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6">
+      <c r="A630" t="s">
+        <v>425</v>
+      </c>
+      <c r="B630">
+        <v>2018</v>
+      </c>
+      <c r="C630">
+        <v>6</v>
+      </c>
+      <c r="D630" t="s">
+        <v>381</v>
+      </c>
+      <c r="E630" t="s">
+        <v>424</v>
+      </c>
+      <c r="F630" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6">
+      <c r="A631" t="s">
+        <v>425</v>
+      </c>
+      <c r="B631">
+        <v>2018</v>
+      </c>
+      <c r="C631">
+        <v>6</v>
+      </c>
+      <c r="D631" t="s">
+        <v>381</v>
+      </c>
+      <c r="E631" t="s">
+        <v>424</v>
+      </c>
+      <c r="F631" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6">
+      <c r="A632" t="s">
+        <v>425</v>
+      </c>
+      <c r="B632">
+        <v>2018</v>
+      </c>
+      <c r="C632">
+        <v>6</v>
+      </c>
+      <c r="D632" t="s">
+        <v>381</v>
+      </c>
+      <c r="E632" t="s">
+        <v>424</v>
+      </c>
+      <c r="F632" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6">
+      <c r="A633" t="s">
+        <v>425</v>
+      </c>
+      <c r="B633">
+        <v>2018</v>
+      </c>
+      <c r="C633">
+        <v>6</v>
+      </c>
+      <c r="D633" t="s">
+        <v>381</v>
+      </c>
+      <c r="E633" t="s">
+        <v>424</v>
+      </c>
+      <c r="F633" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6">
+      <c r="A634" t="s">
+        <v>425</v>
+      </c>
+      <c r="B634">
+        <v>2018</v>
+      </c>
+      <c r="C634">
+        <v>6</v>
+      </c>
+      <c r="D634" t="s">
+        <v>381</v>
+      </c>
+      <c r="E634" t="s">
+        <v>424</v>
+      </c>
+      <c r="F634" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6">
+      <c r="A635" t="s">
+        <v>425</v>
+      </c>
+      <c r="B635">
+        <v>2018</v>
+      </c>
+      <c r="C635">
+        <v>6</v>
+      </c>
+      <c r="D635" t="s">
+        <v>381</v>
+      </c>
+      <c r="E635" t="s">
+        <v>424</v>
+      </c>
+      <c r="F635" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6">
+      <c r="A636" t="s">
+        <v>425</v>
+      </c>
+      <c r="B636">
+        <v>2018</v>
+      </c>
+      <c r="C636">
+        <v>6</v>
+      </c>
+      <c r="D636" t="s">
+        <v>381</v>
+      </c>
+      <c r="E636" t="s">
+        <v>424</v>
+      </c>
+      <c r="F636" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6">
+      <c r="A637" t="s">
+        <v>425</v>
+      </c>
+      <c r="B637">
+        <v>2018</v>
+      </c>
+      <c r="C637">
+        <v>6</v>
+      </c>
+      <c r="D637" t="s">
+        <v>381</v>
+      </c>
+      <c r="E637" t="s">
+        <v>424</v>
+      </c>
+      <c r="F637" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6">
+      <c r="A638" t="s">
+        <v>425</v>
+      </c>
+      <c r="B638">
+        <v>2018</v>
+      </c>
+      <c r="C638">
+        <v>6</v>
+      </c>
+      <c r="D638" t="s">
+        <v>381</v>
+      </c>
+      <c r="E638" t="s">
+        <v>424</v>
+      </c>
+      <c r="F638" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6">
+      <c r="A639" t="s">
+        <v>425</v>
+      </c>
+      <c r="B639">
+        <v>2018</v>
+      </c>
+      <c r="C639">
+        <v>6</v>
+      </c>
+      <c r="D639" t="s">
+        <v>381</v>
+      </c>
+      <c r="E639" t="s">
+        <v>424</v>
+      </c>
+      <c r="F639" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6">
+      <c r="A640" t="s">
+        <v>425</v>
+      </c>
+      <c r="B640">
+        <v>2018</v>
+      </c>
+      <c r="C640">
+        <v>6</v>
+      </c>
+      <c r="D640" t="s">
+        <v>381</v>
+      </c>
+      <c r="E640" t="s">
+        <v>424</v>
+      </c>
+      <c r="F640" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6">
+      <c r="A641" t="s">
+        <v>425</v>
+      </c>
+      <c r="B641">
+        <v>2018</v>
+      </c>
+      <c r="C641">
+        <v>6</v>
+      </c>
+      <c r="D641" t="s">
+        <v>381</v>
+      </c>
+      <c r="E641" t="s">
+        <v>424</v>
+      </c>
+      <c r="F641" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6">
+      <c r="A642" t="s">
+        <v>425</v>
+      </c>
+      <c r="B642">
+        <v>2018</v>
+      </c>
+      <c r="C642">
+        <v>6</v>
+      </c>
+      <c r="D642" t="s">
+        <v>381</v>
+      </c>
+      <c r="E642" t="s">
+        <v>424</v>
+      </c>
+      <c r="F642" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6">
+      <c r="A643" t="s">
+        <v>425</v>
+      </c>
+      <c r="B643">
+        <v>2018</v>
+      </c>
+      <c r="C643">
+        <v>6</v>
+      </c>
+      <c r="D643" t="s">
+        <v>381</v>
+      </c>
+      <c r="E643" t="s">
+        <v>424</v>
+      </c>
+      <c r="F643" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6">
+      <c r="A644" t="s">
+        <v>439</v>
+      </c>
+      <c r="B644">
+        <v>2018</v>
+      </c>
+      <c r="C644">
+        <v>4</v>
+      </c>
+      <c r="D644" t="s">
+        <v>381</v>
+      </c>
+      <c r="E644" t="s">
+        <v>424</v>
+      </c>
+      <c r="F644" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6">
+      <c r="A645" t="s">
+        <v>439</v>
+      </c>
+      <c r="B645">
+        <v>2018</v>
+      </c>
+      <c r="C645">
+        <v>4</v>
+      </c>
+      <c r="D645" t="s">
+        <v>381</v>
+      </c>
+      <c r="E645" t="s">
+        <v>424</v>
+      </c>
+      <c r="F645" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6">
+      <c r="A646" t="s">
+        <v>439</v>
+      </c>
+      <c r="B646">
+        <v>2018</v>
+      </c>
+      <c r="C646">
+        <v>4</v>
+      </c>
+      <c r="D646" t="s">
+        <v>381</v>
+      </c>
+      <c r="E646" t="s">
+        <v>424</v>
+      </c>
+      <c r="F646" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6">
+      <c r="A647" t="s">
+        <v>439</v>
+      </c>
+      <c r="B647">
+        <v>2018</v>
+      </c>
+      <c r="C647">
+        <v>4</v>
+      </c>
+      <c r="D647" t="s">
+        <v>401</v>
+      </c>
+      <c r="E647" t="s">
+        <v>424</v>
+      </c>
+      <c r="F647" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6">
+      <c r="A648" t="s">
+        <v>439</v>
+      </c>
+      <c r="B648">
+        <v>2018</v>
+      </c>
+      <c r="C648">
+        <v>4</v>
+      </c>
+      <c r="D648" t="s">
+        <v>401</v>
+      </c>
+      <c r="E648" t="s">
+        <v>424</v>
+      </c>
+      <c r="F648" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6">
+      <c r="A649" t="s">
+        <v>439</v>
+      </c>
+      <c r="B649">
+        <v>2018</v>
+      </c>
+      <c r="C649">
+        <v>4</v>
+      </c>
+      <c r="D649" t="s">
+        <v>401</v>
+      </c>
+      <c r="E649" t="s">
+        <v>424</v>
+      </c>
+      <c r="F649" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6">
+      <c r="A650" t="s">
+        <v>439</v>
+      </c>
+      <c r="B650">
+        <v>2018</v>
+      </c>
+      <c r="C650">
+        <v>4</v>
+      </c>
+      <c r="D650" t="s">
+        <v>381</v>
+      </c>
+      <c r="E650" t="s">
+        <v>424</v>
+      </c>
+      <c r="F650" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6">
+      <c r="A651" t="s">
+        <v>439</v>
+      </c>
+      <c r="B651">
+        <v>2018</v>
+      </c>
+      <c r="C651">
+        <v>5</v>
+      </c>
+      <c r="D651" t="s">
+        <v>401</v>
+      </c>
+      <c r="E651" t="s">
+        <v>424</v>
+      </c>
+      <c r="F651" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6">
+      <c r="A652" t="s">
+        <v>439</v>
+      </c>
+      <c r="B652">
+        <v>2018</v>
+      </c>
+      <c r="C652">
+        <v>5</v>
+      </c>
+      <c r="D652" t="s">
+        <v>401</v>
+      </c>
+      <c r="E652" t="s">
+        <v>424</v>
+      </c>
+      <c r="F652" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6">
+      <c r="A653" t="s">
+        <v>439</v>
+      </c>
+      <c r="B653">
+        <v>2018</v>
+      </c>
+      <c r="C653">
+        <v>6</v>
+      </c>
+      <c r="D653" t="s">
+        <v>381</v>
+      </c>
+      <c r="E653" t="s">
+        <v>424</v>
+      </c>
+      <c r="F653" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6">
+      <c r="A654" t="s">
+        <v>439</v>
+      </c>
+      <c r="B654">
+        <v>2018</v>
+      </c>
+      <c r="C654">
+        <v>6</v>
+      </c>
+      <c r="D654" t="s">
+        <v>401</v>
+      </c>
+      <c r="E654" t="s">
+        <v>424</v>
+      </c>
+      <c r="F654" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6">
+      <c r="A655" t="s">
+        <v>439</v>
+      </c>
+      <c r="B655">
+        <v>2018</v>
+      </c>
+      <c r="C655">
+        <v>6</v>
+      </c>
+      <c r="D655" t="s">
+        <v>381</v>
+      </c>
+      <c r="E655" t="s">
+        <v>424</v>
+      </c>
+      <c r="F655" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6">
+      <c r="A656" t="s">
+        <v>444</v>
+      </c>
+      <c r="B656">
+        <v>2018</v>
+      </c>
+      <c r="C656">
+        <v>4</v>
+      </c>
+      <c r="D656" t="s">
+        <v>401</v>
+      </c>
+      <c r="E656" t="s">
+        <v>424</v>
+      </c>
+      <c r="F656" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6">
+      <c r="A657" t="s">
+        <v>444</v>
+      </c>
+      <c r="B657">
+        <v>2018</v>
+      </c>
+      <c r="C657">
+        <v>4</v>
+      </c>
+      <c r="D657" t="s">
+        <v>401</v>
+      </c>
+      <c r="E657" t="s">
+        <v>424</v>
+      </c>
+      <c r="F657" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6">
+      <c r="A658" t="s">
+        <v>444</v>
+      </c>
+      <c r="B658">
+        <v>2018</v>
+      </c>
+      <c r="C658">
+        <v>4</v>
+      </c>
+      <c r="D658" t="s">
+        <v>401</v>
+      </c>
+      <c r="E658" t="s">
+        <v>424</v>
+      </c>
+      <c r="F658" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6">
+      <c r="A659" t="s">
+        <v>444</v>
+      </c>
+      <c r="B659">
+        <v>2018</v>
+      </c>
+      <c r="C659">
+        <v>4</v>
+      </c>
+      <c r="D659" t="s">
+        <v>401</v>
+      </c>
+      <c r="E659" t="s">
+        <v>424</v>
+      </c>
+      <c r="F659" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6">
+      <c r="A660" t="s">
+        <v>444</v>
+      </c>
+      <c r="B660">
+        <v>2018</v>
+      </c>
+      <c r="C660">
+        <v>4</v>
+      </c>
+      <c r="D660" t="s">
+        <v>401</v>
+      </c>
+      <c r="E660" t="s">
+        <v>424</v>
+      </c>
+      <c r="F660" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6">
+      <c r="A661" t="s">
+        <v>444</v>
+      </c>
+      <c r="B661">
+        <v>2018</v>
+      </c>
+      <c r="C661">
+        <v>4</v>
+      </c>
+      <c r="D661" t="s">
+        <v>401</v>
+      </c>
+      <c r="E661" t="s">
+        <v>424</v>
+      </c>
+      <c r="F661" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6">
+      <c r="A662" t="s">
+        <v>444</v>
+      </c>
+      <c r="B662">
+        <v>2018</v>
+      </c>
+      <c r="C662">
+        <v>4</v>
+      </c>
+      <c r="D662" t="s">
+        <v>401</v>
+      </c>
+      <c r="E662" t="s">
+        <v>424</v>
+      </c>
+      <c r="F662" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6">
+      <c r="A663" t="s">
+        <v>444</v>
+      </c>
+      <c r="B663">
+        <v>2018</v>
+      </c>
+      <c r="C663">
+        <v>4</v>
+      </c>
+      <c r="D663" t="s">
+        <v>401</v>
+      </c>
+      <c r="E663" t="s">
+        <v>424</v>
+      </c>
+      <c r="F663" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6">
+      <c r="A664" t="s">
+        <v>444</v>
+      </c>
+      <c r="B664">
+        <v>2018</v>
+      </c>
+      <c r="C664">
+        <v>4</v>
+      </c>
+      <c r="D664" t="s">
+        <v>401</v>
+      </c>
+      <c r="E664" t="s">
+        <v>424</v>
+      </c>
+      <c r="F664" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6">
+      <c r="A665" t="s">
+        <v>444</v>
+      </c>
+      <c r="B665">
+        <v>2018</v>
+      </c>
+      <c r="C665">
+        <v>4</v>
+      </c>
+      <c r="D665" t="s">
+        <v>401</v>
+      </c>
+      <c r="E665" t="s">
+        <v>424</v>
+      </c>
+      <c r="F665" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6">
+      <c r="A666" t="s">
+        <v>444</v>
+      </c>
+      <c r="B666">
+        <v>2018</v>
+      </c>
+      <c r="C666">
+        <v>4</v>
+      </c>
+      <c r="D666" t="s">
+        <v>401</v>
+      </c>
+      <c r="E666" t="s">
+        <v>424</v>
+      </c>
+      <c r="F666" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6">
+      <c r="A667" t="s">
+        <v>444</v>
+      </c>
+      <c r="B667">
+        <v>2018</v>
+      </c>
+      <c r="C667">
+        <v>4</v>
+      </c>
+      <c r="D667" t="s">
+        <v>401</v>
+      </c>
+      <c r="E667" t="s">
+        <v>424</v>
+      </c>
+      <c r="F667" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6">
+      <c r="A668" t="s">
+        <v>444</v>
+      </c>
+      <c r="B668">
+        <v>2018</v>
+      </c>
+      <c r="C668">
+        <v>4</v>
+      </c>
+      <c r="D668" t="s">
+        <v>401</v>
+      </c>
+      <c r="E668" t="s">
+        <v>424</v>
+      </c>
+      <c r="F668" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6">
+      <c r="A669" t="s">
+        <v>444</v>
+      </c>
+      <c r="B669">
+        <v>2018</v>
+      </c>
+      <c r="C669">
+        <v>4</v>
+      </c>
+      <c r="D669" t="s">
+        <v>401</v>
+      </c>
+      <c r="E669" t="s">
+        <v>424</v>
+      </c>
+      <c r="F669" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6">
+      <c r="A670" t="s">
+        <v>444</v>
+      </c>
+      <c r="B670">
+        <v>2018</v>
+      </c>
+      <c r="C670">
+        <v>4</v>
+      </c>
+      <c r="D670" t="s">
+        <v>401</v>
+      </c>
+      <c r="E670" t="s">
+        <v>424</v>
+      </c>
+      <c r="F670" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6">
+      <c r="A671" t="s">
+        <v>444</v>
+      </c>
+      <c r="B671">
+        <v>2018</v>
+      </c>
+      <c r="C671">
+        <v>4</v>
+      </c>
+      <c r="D671" t="s">
+        <v>401</v>
+      </c>
+      <c r="E671" t="s">
+        <v>424</v>
+      </c>
+      <c r="F671" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6">
+      <c r="A672" t="s">
+        <v>444</v>
+      </c>
+      <c r="B672">
+        <v>2018</v>
+      </c>
+      <c r="C672">
+        <v>4</v>
+      </c>
+      <c r="D672" t="s">
+        <v>401</v>
+      </c>
+      <c r="E672" t="s">
+        <v>424</v>
+      </c>
+      <c r="F672" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6">
+      <c r="A673" t="s">
+        <v>444</v>
+      </c>
+      <c r="B673">
+        <v>2018</v>
+      </c>
+      <c r="C673">
+        <v>4</v>
+      </c>
+      <c r="D673" t="s">
+        <v>401</v>
+      </c>
+      <c r="E673" t="s">
+        <v>424</v>
+      </c>
+      <c r="F673" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6">
+      <c r="A674" t="s">
+        <v>444</v>
+      </c>
+      <c r="B674">
+        <v>2018</v>
+      </c>
+      <c r="C674">
+        <v>4</v>
+      </c>
+      <c r="D674" t="s">
+        <v>401</v>
+      </c>
+      <c r="E674" t="s">
+        <v>424</v>
+      </c>
+      <c r="F674" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6">
+      <c r="A675" t="s">
+        <v>444</v>
+      </c>
+      <c r="B675">
+        <v>2018</v>
+      </c>
+      <c r="C675">
+        <v>4</v>
+      </c>
+      <c r="D675" t="s">
+        <v>401</v>
+      </c>
+      <c r="E675" t="s">
+        <v>424</v>
+      </c>
+      <c r="F675" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6">
+      <c r="A676" t="s">
+        <v>444</v>
+      </c>
+      <c r="B676">
+        <v>2018</v>
+      </c>
+      <c r="C676">
+        <v>4</v>
+      </c>
+      <c r="D676" t="s">
+        <v>401</v>
+      </c>
+      <c r="E676" t="s">
+        <v>424</v>
+      </c>
+      <c r="F676" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6">
+      <c r="A677" t="s">
+        <v>444</v>
+      </c>
+      <c r="B677">
+        <v>2018</v>
+      </c>
+      <c r="C677">
+        <v>4</v>
+      </c>
+      <c r="D677" t="s">
+        <v>401</v>
+      </c>
+      <c r="E677" t="s">
+        <v>424</v>
+      </c>
+      <c r="F677" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6">
+      <c r="A678" t="s">
+        <v>444</v>
+      </c>
+      <c r="B678">
+        <v>2018</v>
+      </c>
+      <c r="C678">
+        <v>4</v>
+      </c>
+      <c r="D678" t="s">
+        <v>401</v>
+      </c>
+      <c r="E678" t="s">
+        <v>424</v>
+      </c>
+      <c r="F678" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6">
+      <c r="A679" t="s">
+        <v>444</v>
+      </c>
+      <c r="B679">
+        <v>2018</v>
+      </c>
+      <c r="C679">
+        <v>4</v>
+      </c>
+      <c r="D679" t="s">
+        <v>401</v>
+      </c>
+      <c r="E679" t="s">
+        <v>424</v>
+      </c>
+      <c r="F679" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6">
+      <c r="A680" t="s">
+        <v>444</v>
+      </c>
+      <c r="B680">
+        <v>2018</v>
+      </c>
+      <c r="C680">
+        <v>4</v>
+      </c>
+      <c r="D680" t="s">
+        <v>401</v>
+      </c>
+      <c r="E680" t="s">
+        <v>424</v>
+      </c>
+      <c r="F680" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6">
+      <c r="A681" t="s">
+        <v>444</v>
+      </c>
+      <c r="B681">
+        <v>2018</v>
+      </c>
+      <c r="C681">
+        <v>5</v>
+      </c>
+      <c r="D681" t="s">
+        <v>401</v>
+      </c>
+      <c r="E681" t="s">
+        <v>424</v>
+      </c>
+      <c r="F681" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6">
+      <c r="A682" t="s">
+        <v>444</v>
+      </c>
+      <c r="B682">
+        <v>2018</v>
+      </c>
+      <c r="C682">
+        <v>5</v>
+      </c>
+      <c r="D682" t="s">
+        <v>401</v>
+      </c>
+      <c r="E682" t="s">
+        <v>424</v>
+      </c>
+      <c r="F682" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6">
+      <c r="A683" t="s">
+        <v>444</v>
+      </c>
+      <c r="B683">
+        <v>2018</v>
+      </c>
+      <c r="C683">
+        <v>5</v>
+      </c>
+      <c r="D683" t="s">
+        <v>401</v>
+      </c>
+      <c r="E683" t="s">
+        <v>424</v>
+      </c>
+      <c r="F683" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6">
+      <c r="A684" t="s">
+        <v>444</v>
+      </c>
+      <c r="B684">
+        <v>2018</v>
+      </c>
+      <c r="C684">
+        <v>5</v>
+      </c>
+      <c r="D684" t="s">
+        <v>401</v>
+      </c>
+      <c r="E684" t="s">
+        <v>424</v>
+      </c>
+      <c r="F684" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6">
+      <c r="A685" t="s">
+        <v>444</v>
+      </c>
+      <c r="B685">
+        <v>2018</v>
+      </c>
+      <c r="C685">
+        <v>5</v>
+      </c>
+      <c r="D685" t="s">
+        <v>401</v>
+      </c>
+      <c r="E685" t="s">
+        <v>424</v>
+      </c>
+      <c r="F685" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6">
+      <c r="A686" t="s">
+        <v>444</v>
+      </c>
+      <c r="B686">
+        <v>2018</v>
+      </c>
+      <c r="C686">
+        <v>5</v>
+      </c>
+      <c r="D686" t="s">
+        <v>401</v>
+      </c>
+      <c r="E686" t="s">
+        <v>424</v>
+      </c>
+      <c r="F686" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6">
+      <c r="A687" t="s">
+        <v>444</v>
+      </c>
+      <c r="B687">
+        <v>2018</v>
+      </c>
+      <c r="C687">
+        <v>6</v>
+      </c>
+      <c r="D687" t="s">
+        <v>401</v>
+      </c>
+      <c r="E687" t="s">
+        <v>424</v>
+      </c>
+      <c r="F687" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6">
+      <c r="A688" t="s">
+        <v>444</v>
+      </c>
+      <c r="B688">
+        <v>2018</v>
+      </c>
+      <c r="C688">
+        <v>6</v>
+      </c>
+      <c r="D688" t="s">
+        <v>401</v>
+      </c>
+      <c r="E688" t="s">
+        <v>424</v>
+      </c>
+      <c r="F688" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6">
+      <c r="A689" t="s">
+        <v>444</v>
+      </c>
+      <c r="B689">
+        <v>2018</v>
+      </c>
+      <c r="C689">
+        <v>6</v>
+      </c>
+      <c r="D689" t="s">
+        <v>401</v>
+      </c>
+      <c r="E689" t="s">
+        <v>424</v>
+      </c>
+      <c r="F689" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6">
+      <c r="A690" t="s">
+        <v>444</v>
+      </c>
+      <c r="B690">
+        <v>2018</v>
+      </c>
+      <c r="C690">
+        <v>6</v>
+      </c>
+      <c r="D690" t="s">
+        <v>401</v>
+      </c>
+      <c r="E690" t="s">
+        <v>424</v>
+      </c>
+      <c r="F690" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6">
+      <c r="A691" t="s">
+        <v>444</v>
+      </c>
+      <c r="B691">
+        <v>2018</v>
+      </c>
+      <c r="C691">
+        <v>6</v>
+      </c>
+      <c r="D691" t="s">
+        <v>401</v>
+      </c>
+      <c r="E691" t="s">
+        <v>424</v>
+      </c>
+      <c r="F691" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6">
+      <c r="A692" t="s">
+        <v>444</v>
+      </c>
+      <c r="B692">
+        <v>2018</v>
+      </c>
+      <c r="C692">
+        <v>6</v>
+      </c>
+      <c r="D692" t="s">
+        <v>401</v>
+      </c>
+      <c r="E692" t="s">
+        <v>424</v>
+      </c>
+      <c r="F692" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6">
+      <c r="A693" t="s">
+        <v>444</v>
+      </c>
+      <c r="B693">
+        <v>2018</v>
+      </c>
+      <c r="C693">
+        <v>6</v>
+      </c>
+      <c r="D693" t="s">
+        <v>401</v>
+      </c>
+      <c r="E693" t="s">
+        <v>424</v>
+      </c>
+      <c r="F693" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6">
+      <c r="A694" t="s">
+        <v>444</v>
+      </c>
+      <c r="B694">
+        <v>2018</v>
+      </c>
+      <c r="C694">
+        <v>6</v>
+      </c>
+      <c r="D694" t="s">
+        <v>401</v>
+      </c>
+      <c r="E694" t="s">
+        <v>424</v>
+      </c>
+      <c r="F694" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6">
+      <c r="A695" t="s">
+        <v>444</v>
+      </c>
+      <c r="B695">
+        <v>2018</v>
+      </c>
+      <c r="C695">
+        <v>6</v>
+      </c>
+      <c r="D695" t="s">
+        <v>401</v>
+      </c>
+      <c r="E695" t="s">
+        <v>424</v>
+      </c>
+      <c r="F695" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6">
+      <c r="A696" t="s">
+        <v>444</v>
+      </c>
+      <c r="B696">
+        <v>2018</v>
+      </c>
+      <c r="C696">
+        <v>6</v>
+      </c>
+      <c r="D696" t="s">
+        <v>401</v>
+      </c>
+      <c r="E696" t="s">
+        <v>424</v>
+      </c>
+      <c r="F696" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6">
+      <c r="A697" t="s">
+        <v>444</v>
+      </c>
+      <c r="B697">
+        <v>2018</v>
+      </c>
+      <c r="C697">
+        <v>6</v>
+      </c>
+      <c r="D697" t="s">
+        <v>401</v>
+      </c>
+      <c r="E697" t="s">
+        <v>424</v>
+      </c>
+      <c r="F697" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6">
+      <c r="A698" t="s">
+        <v>444</v>
+      </c>
+      <c r="B698">
+        <v>2018</v>
+      </c>
+      <c r="C698">
+        <v>6</v>
+      </c>
+      <c r="D698" t="s">
+        <v>401</v>
+      </c>
+      <c r="E698" t="s">
+        <v>424</v>
+      </c>
+      <c r="F698" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6">
+      <c r="A699" t="s">
+        <v>444</v>
+      </c>
+      <c r="B699">
+        <v>2018</v>
+      </c>
+      <c r="C699">
+        <v>6</v>
+      </c>
+      <c r="D699" t="s">
+        <v>401</v>
+      </c>
+      <c r="E699" t="s">
+        <v>424</v>
+      </c>
+      <c r="F699" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6">
+      <c r="A700" t="s">
+        <v>444</v>
+      </c>
+      <c r="B700">
+        <v>2018</v>
+      </c>
+      <c r="C700">
+        <v>6</v>
+      </c>
+      <c r="D700" t="s">
+        <v>401</v>
+      </c>
+      <c r="E700" t="s">
+        <v>424</v>
+      </c>
+      <c r="F700" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
